--- a/2024-10-24/1.Good-RS3 Good-RS6.xlsx
+++ b/2024-10-24/1.Good-RS3 Good-RS6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="582">
   <si>
     <t>Symbol</t>
   </si>
@@ -877,9 +877,6 @@
     <t>AFFLE</t>
   </si>
   <si>
-    <t>BBL</t>
-  </si>
-  <si>
     <t>HUBTOWN</t>
   </si>
   <si>
@@ -907,6 +904,9 @@
     <t>HIGREEN</t>
   </si>
   <si>
+    <t>ZEEMEDIA</t>
+  </si>
+  <si>
     <t>REDTAPE</t>
   </si>
   <si>
@@ -1691,6 +1691,9 @@
   </si>
   <si>
     <t>Oil&amp;Gas-Transprt/Pipelne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media-Radio/Tv          </t>
   </si>
   <si>
     <t xml:space="preserve">Apparel-Shoes &amp; Rel Mfg </t>
@@ -2225,7 +2228,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="D3">
         <v>98</v>
@@ -2240,7 +2243,7 @@
         <v>1000</v>
       </c>
       <c r="H3">
-        <v>-0.55</v>
+        <v>1.44</v>
       </c>
       <c r="I3">
         <v>387.33</v>
@@ -2275,7 +2278,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>7100.25</v>
+        <v>7021</v>
       </c>
       <c r="D4">
         <v>93</v>
@@ -2290,7 +2293,7 @@
         <v>3737.67</v>
       </c>
       <c r="H4">
-        <v>-16.22</v>
+        <v>-17.16</v>
       </c>
       <c r="I4">
         <v>209.61</v>
@@ -2325,7 +2328,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>167.92</v>
+        <v>167.35</v>
       </c>
       <c r="D5">
         <v>85</v>
@@ -2340,7 +2343,7 @@
         <v>1690.38</v>
       </c>
       <c r="H5">
-        <v>-10.92</v>
+        <v>-11.22</v>
       </c>
       <c r="I5">
         <v>101.13</v>
@@ -2375,7 +2378,7 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>479.65</v>
+        <v>489.2</v>
       </c>
       <c r="D6">
         <v>92</v>
@@ -2390,7 +2393,7 @@
         <v>532.6</v>
       </c>
       <c r="H6">
-        <v>-9.81</v>
+        <v>-8.01</v>
       </c>
       <c r="I6">
         <v>150.67</v>
@@ -2425,7 +2428,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>448</v>
+        <v>449.85</v>
       </c>
       <c r="D7">
         <v>91</v>
@@ -2440,7 +2443,7 @@
         <v>4111.75</v>
       </c>
       <c r="H7">
-        <v>3.2</v>
+        <v>3.63</v>
       </c>
       <c r="I7">
         <v>184.5</v>
@@ -2475,7 +2478,7 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>298.6</v>
+        <v>291.9</v>
       </c>
       <c r="D8">
         <v>93</v>
@@ -2490,7 +2493,7 @@
         <v>1881.94</v>
       </c>
       <c r="H8">
-        <v>-18.7</v>
+        <v>-20.52</v>
       </c>
       <c r="I8">
         <v>173.48</v>
@@ -2525,7 +2528,7 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>152.1</v>
+        <v>149.78</v>
       </c>
       <c r="D9">
         <v>97</v>
@@ -2540,7 +2543,7 @@
         <v>7344.9</v>
       </c>
       <c r="H9">
-        <v>-18.69</v>
+        <v>-19.93</v>
       </c>
       <c r="I9">
         <v>469.21</v>
@@ -2575,7 +2578,7 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>471</v>
+        <v>473.95</v>
       </c>
       <c r="D10">
         <v>96</v>
@@ -2590,7 +2593,7 @@
         <v>5753.09</v>
       </c>
       <c r="H10">
-        <v>-21.5</v>
+        <v>-21.01</v>
       </c>
       <c r="I10">
         <v>365.34</v>
@@ -2625,7 +2628,7 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D11">
         <v>94</v>
@@ -2640,7 +2643,7 @@
         <v>1355.78</v>
       </c>
       <c r="H11">
-        <v>-14.21</v>
+        <v>-14.58</v>
       </c>
       <c r="I11">
         <v>268.7</v>
@@ -2675,7 +2678,7 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>3550</v>
+        <v>3600</v>
       </c>
       <c r="D12">
         <v>96</v>
@@ -2690,7 +2693,7 @@
         <v>5047.57</v>
       </c>
       <c r="H12">
-        <v>2.01</v>
+        <v>3.45</v>
       </c>
       <c r="I12">
         <v>404.8</v>
@@ -2725,7 +2728,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>353.05</v>
+        <v>356.5</v>
       </c>
       <c r="D13">
         <v>94</v>
@@ -2740,7 +2743,7 @@
         <v>3859.04</v>
       </c>
       <c r="H13">
-        <v>-12.87</v>
+        <v>-12.02</v>
       </c>
       <c r="I13">
         <v>200.5</v>
@@ -2775,7 +2778,7 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>278.5</v>
+        <v>277</v>
       </c>
       <c r="D14">
         <v>90</v>
@@ -2790,7 +2793,7 @@
         <v>2739.26</v>
       </c>
       <c r="H14">
-        <v>-15.57</v>
+        <v>-16.02</v>
       </c>
       <c r="I14">
         <v>213.17</v>
@@ -2825,7 +2828,7 @@
         <v>28</v>
       </c>
       <c r="C15">
-        <v>275.55</v>
+        <v>272.6</v>
       </c>
       <c r="D15">
         <v>93</v>
@@ -2840,7 +2843,7 @@
         <v>1868.47</v>
       </c>
       <c r="H15">
-        <v>-23.53</v>
+        <v>-24.35</v>
       </c>
       <c r="I15">
         <v>200.91</v>
@@ -2875,7 +2878,7 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>153.97</v>
+        <v>155.5</v>
       </c>
       <c r="D16">
         <v>96</v>
@@ -2890,7 +2893,7 @@
         <v>1717.25</v>
       </c>
       <c r="H16">
-        <v>-14.71</v>
+        <v>-13.86</v>
       </c>
       <c r="I16">
         <v>463.76</v>
@@ -2925,7 +2928,7 @@
         <v>30</v>
       </c>
       <c r="C17">
-        <v>129.03</v>
+        <v>127.05</v>
       </c>
       <c r="D17">
         <v>96</v>
@@ -2940,7 +2943,7 @@
         <v>1585.19</v>
       </c>
       <c r="H17">
-        <v>-9.77</v>
+        <v>-11.15</v>
       </c>
       <c r="I17">
         <v>386.79</v>
@@ -2975,7 +2978,7 @@
         <v>31</v>
       </c>
       <c r="C18">
-        <v>476.25</v>
+        <v>479.85</v>
       </c>
       <c r="D18">
         <v>77</v>
@@ -2990,7 +2993,7 @@
         <v>2198.2</v>
       </c>
       <c r="H18">
-        <v>-31.05</v>
+        <v>-30.53</v>
       </c>
       <c r="I18">
         <v>98.48</v>
@@ -3025,7 +3028,7 @@
         <v>32</v>
       </c>
       <c r="C19">
-        <v>461.3</v>
+        <v>458</v>
       </c>
       <c r="D19">
         <v>75</v>
@@ -3040,7 +3043,7 @@
         <v>5815.89</v>
       </c>
       <c r="H19">
-        <v>-5.28</v>
+        <v>-5.95</v>
       </c>
       <c r="I19">
         <v>55.04</v>
@@ -3075,7 +3078,7 @@
         <v>33</v>
       </c>
       <c r="C20">
-        <v>596</v>
+        <v>619.9</v>
       </c>
       <c r="D20">
         <v>67</v>
@@ -3090,7 +3093,7 @@
         <v>739.45</v>
       </c>
       <c r="H20">
-        <v>-21.53</v>
+        <v>-18.38</v>
       </c>
       <c r="I20">
         <v>63.63</v>
@@ -3125,7 +3128,7 @@
         <v>34</v>
       </c>
       <c r="C21">
-        <v>122.5</v>
+        <v>118</v>
       </c>
       <c r="D21">
         <v>94</v>
@@ -3140,7 +3143,7 @@
         <v>1451.75</v>
       </c>
       <c r="H21">
-        <v>-22.15</v>
+        <v>-25.01</v>
       </c>
       <c r="I21">
         <v>232.51</v>
@@ -3175,7 +3178,7 @@
         <v>35</v>
       </c>
       <c r="C22">
-        <v>529.65</v>
+        <v>530.25</v>
       </c>
       <c r="D22">
         <v>91</v>
@@ -3190,7 +3193,7 @@
         <v>5684.38</v>
       </c>
       <c r="H22">
-        <v>-14.42</v>
+        <v>-14.32</v>
       </c>
       <c r="I22">
         <v>174.01</v>
@@ -3225,7 +3228,7 @@
         <v>36</v>
       </c>
       <c r="C23">
-        <v>1544.15</v>
+        <v>1535.2</v>
       </c>
       <c r="D23">
         <v>93</v>
@@ -3240,7 +3243,7 @@
         <v>14347.75</v>
       </c>
       <c r="H23">
-        <v>-7.81</v>
+        <v>-8.35</v>
       </c>
       <c r="I23">
         <v>234.1</v>
@@ -3275,7 +3278,7 @@
         <v>37</v>
       </c>
       <c r="C24">
-        <v>635.8</v>
+        <v>638</v>
       </c>
       <c r="D24">
         <v>81</v>
@@ -3290,7 +3293,7 @@
         <v>5311.54</v>
       </c>
       <c r="H24">
-        <v>-4.1</v>
+        <v>-3.77</v>
       </c>
       <c r="I24">
         <v>79.8</v>
@@ -3325,7 +3328,7 @@
         <v>38</v>
       </c>
       <c r="C25">
-        <v>307.75</v>
+        <v>306</v>
       </c>
       <c r="D25">
         <v>77</v>
@@ -3340,7 +3343,7 @@
         <v>1517.14</v>
       </c>
       <c r="H25">
-        <v>-11.82</v>
+        <v>-12.32</v>
       </c>
       <c r="I25">
         <v>66.40000000000001</v>
@@ -3425,7 +3428,7 @@
         <v>40</v>
       </c>
       <c r="C27">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D27">
         <v>89</v>
@@ -3440,7 +3443,7 @@
         <v>1655.15</v>
       </c>
       <c r="H27">
-        <v>-9.35</v>
+        <v>-8.720000000000001</v>
       </c>
       <c r="I27">
         <v>168.33</v>
@@ -3475,7 +3478,7 @@
         <v>41</v>
       </c>
       <c r="C28">
-        <v>345.35</v>
+        <v>331.3</v>
       </c>
       <c r="D28">
         <v>88</v>
@@ -3490,7 +3493,7 @@
         <v>24457.41</v>
       </c>
       <c r="H28">
-        <v>-4.6</v>
+        <v>-8.48</v>
       </c>
       <c r="I28">
         <v>136.61</v>
@@ -3525,7 +3528,7 @@
         <v>42</v>
       </c>
       <c r="C29">
-        <v>6731.5</v>
+        <v>6510</v>
       </c>
       <c r="D29">
         <v>95</v>
@@ -3540,7 +3543,7 @@
         <v>35555.84</v>
       </c>
       <c r="H29">
-        <v>-20.62</v>
+        <v>-23.23</v>
       </c>
       <c r="I29">
         <v>243.28</v>
@@ -3575,7 +3578,7 @@
         <v>43</v>
       </c>
       <c r="C30">
-        <v>129</v>
+        <v>127.3</v>
       </c>
       <c r="D30">
         <v>87</v>
@@ -3590,7 +3593,7 @@
         <v>1322.4</v>
       </c>
       <c r="H30">
-        <v>-11.46</v>
+        <v>-12.63</v>
       </c>
       <c r="I30">
         <v>161.86</v>
@@ -3625,7 +3628,7 @@
         <v>44</v>
       </c>
       <c r="C31">
-        <v>224.3</v>
+        <v>226.21</v>
       </c>
       <c r="D31">
         <v>83</v>
@@ -3640,7 +3643,7 @@
         <v>41142.39</v>
       </c>
       <c r="H31">
-        <v>-4.7</v>
+        <v>-3.89</v>
       </c>
       <c r="I31">
         <v>152.83</v>
@@ -3675,7 +3678,7 @@
         <v>45</v>
       </c>
       <c r="C32">
-        <v>1249.65</v>
+        <v>1264.25</v>
       </c>
       <c r="D32">
         <v>89</v>
@@ -3690,7 +3693,7 @@
         <v>31823.17</v>
       </c>
       <c r="H32">
-        <v>-4.44</v>
+        <v>-3.33</v>
       </c>
       <c r="I32">
         <v>131.07</v>
@@ -3725,7 +3728,7 @@
         <v>46</v>
       </c>
       <c r="C33">
-        <v>452.7</v>
+        <v>451</v>
       </c>
       <c r="D33">
         <v>85</v>
@@ -3740,7 +3743,7 @@
         <v>2844.8</v>
       </c>
       <c r="H33">
-        <v>-11.15</v>
+        <v>-11.48</v>
       </c>
       <c r="I33">
         <v>95.77</v>
@@ -3775,7 +3778,7 @@
         <v>47</v>
       </c>
       <c r="C34">
-        <v>1081.4</v>
+        <v>1120.15</v>
       </c>
       <c r="D34">
         <v>85</v>
@@ -3790,7 +3793,7 @@
         <v>14122.88</v>
       </c>
       <c r="H34">
-        <v>-7.08</v>
+        <v>-3.75</v>
       </c>
       <c r="I34">
         <v>148.61</v>
@@ -3875,7 +3878,7 @@
         <v>49</v>
       </c>
       <c r="C36">
-        <v>2532.7</v>
+        <v>2538.4</v>
       </c>
       <c r="D36">
         <v>82</v>
@@ -3890,7 +3893,7 @@
         <v>4219.26</v>
       </c>
       <c r="H36">
-        <v>-14.87</v>
+        <v>-14.67</v>
       </c>
       <c r="I36">
         <v>97.45</v>
@@ -3925,7 +3928,7 @@
         <v>50</v>
       </c>
       <c r="C37">
-        <v>277.45</v>
+        <v>280.6</v>
       </c>
       <c r="D37">
         <v>79</v>
@@ -3940,7 +3943,7 @@
         <v>10586.6</v>
       </c>
       <c r="H37">
-        <v>-20.95</v>
+        <v>-20.06</v>
       </c>
       <c r="I37">
         <v>85.01000000000001</v>
@@ -4025,7 +4028,7 @@
         <v>52</v>
       </c>
       <c r="C39">
-        <v>793</v>
+        <v>776.45</v>
       </c>
       <c r="D39">
         <v>90</v>
@@ -4040,7 +4043,7 @@
         <v>3209.85</v>
       </c>
       <c r="H39">
-        <v>-6.78</v>
+        <v>-8.720000000000001</v>
       </c>
       <c r="I39">
         <v>203.06</v>
@@ -4075,7 +4078,7 @@
         <v>53</v>
       </c>
       <c r="C40">
-        <v>262.55</v>
+        <v>257.3</v>
       </c>
       <c r="D40">
         <v>92</v>
@@ -4090,7 +4093,7 @@
         <v>3969.64</v>
       </c>
       <c r="H40">
-        <v>-22.25</v>
+        <v>-23.81</v>
       </c>
       <c r="I40">
         <v>183.21</v>
@@ -4175,7 +4178,7 @@
         <v>55</v>
       </c>
       <c r="C42">
-        <v>472.6</v>
+        <v>470.65</v>
       </c>
       <c r="D42">
         <v>86</v>
@@ -4190,7 +4193,7 @@
         <v>9608.07</v>
       </c>
       <c r="H42">
-        <v>-5.12</v>
+        <v>-5.51</v>
       </c>
       <c r="I42">
         <v>149.04</v>
@@ -4225,7 +4228,7 @@
         <v>56</v>
       </c>
       <c r="C43">
-        <v>156.83</v>
+        <v>158</v>
       </c>
       <c r="D43">
         <v>74</v>
@@ -4240,7 +4243,7 @@
         <v>2155.85</v>
       </c>
       <c r="H43">
-        <v>-23.08</v>
+        <v>-22.51</v>
       </c>
       <c r="I43">
         <v>75.79000000000001</v>
@@ -4275,7 +4278,7 @@
         <v>57</v>
       </c>
       <c r="C44">
-        <v>1885.5</v>
+        <v>1870</v>
       </c>
       <c r="D44">
         <v>84</v>
@@ -4290,7 +4293,7 @@
         <v>36057.88</v>
       </c>
       <c r="H44">
-        <v>-12.5</v>
+        <v>-13.22</v>
       </c>
       <c r="I44">
         <v>99.8</v>
@@ -4325,7 +4328,7 @@
         <v>58</v>
       </c>
       <c r="C45">
-        <v>420</v>
+        <v>407.9</v>
       </c>
       <c r="D45">
         <v>91</v>
@@ -4340,7 +4343,7 @@
         <v>9566.190000000001</v>
       </c>
       <c r="H45">
-        <v>-11.39</v>
+        <v>-13.95</v>
       </c>
       <c r="I45">
         <v>195.51</v>
@@ -4375,7 +4378,7 @@
         <v>59</v>
       </c>
       <c r="C46">
-        <v>372.7</v>
+        <v>366.9</v>
       </c>
       <c r="D46">
         <v>88</v>
@@ -4390,7 +4393,7 @@
         <v>1489.66</v>
       </c>
       <c r="H46">
-        <v>-19.68</v>
+        <v>-20.93</v>
       </c>
       <c r="I46">
         <v>121.86</v>
@@ -4425,7 +4428,7 @@
         <v>60</v>
       </c>
       <c r="C47">
-        <v>397.55</v>
+        <v>391.3</v>
       </c>
       <c r="D47">
         <v>82</v>
@@ -4440,7 +4443,7 @@
         <v>3156.09</v>
       </c>
       <c r="H47">
-        <v>-20.33</v>
+        <v>-21.58</v>
       </c>
       <c r="I47">
         <v>120.35</v>
@@ -4475,7 +4478,7 @@
         <v>61</v>
       </c>
       <c r="C48">
-        <v>190.04</v>
+        <v>188</v>
       </c>
       <c r="D48">
         <v>77</v>
@@ -4490,7 +4493,7 @@
         <v>3453.82</v>
       </c>
       <c r="H48">
-        <v>-14.01</v>
+        <v>-14.93</v>
       </c>
       <c r="I48">
         <v>86.69</v>
@@ -4525,7 +4528,7 @@
         <v>62</v>
       </c>
       <c r="C49">
-        <v>51.07</v>
+        <v>51.85</v>
       </c>
       <c r="D49">
         <v>64</v>
@@ -4540,7 +4543,7 @@
         <v>509.03</v>
       </c>
       <c r="H49">
-        <v>-21.31</v>
+        <v>-20.11</v>
       </c>
       <c r="I49">
         <v>51.68</v>
@@ -4575,7 +4578,7 @@
         <v>63</v>
       </c>
       <c r="C50">
-        <v>1043.4</v>
+        <v>1021.7</v>
       </c>
       <c r="D50">
         <v>69</v>
@@ -4590,7 +4593,7 @@
         <v>19193.74</v>
       </c>
       <c r="H50">
-        <v>-20.59</v>
+        <v>-22.25</v>
       </c>
       <c r="I50">
         <v>98.66</v>
@@ -4625,7 +4628,7 @@
         <v>64</v>
       </c>
       <c r="C51">
-        <v>185.21</v>
+        <v>189.4</v>
       </c>
       <c r="D51">
         <v>62</v>
@@ -4640,7 +4643,7 @@
         <v>2403.93</v>
       </c>
       <c r="H51">
-        <v>-13.45</v>
+        <v>-11.5</v>
       </c>
       <c r="I51">
         <v>61.64</v>
@@ -4675,7 +4678,7 @@
         <v>65</v>
       </c>
       <c r="C52">
-        <v>1512</v>
+        <v>1504</v>
       </c>
       <c r="D52">
         <v>82</v>
@@ -4690,7 +4693,7 @@
         <v>1890.05</v>
       </c>
       <c r="H52">
-        <v>-11.31</v>
+        <v>-11.78</v>
       </c>
       <c r="I52">
         <v>114.85</v>
@@ -4725,7 +4728,7 @@
         <v>66</v>
       </c>
       <c r="C53">
-        <v>720.6</v>
+        <v>709</v>
       </c>
       <c r="D53">
         <v>85</v>
@@ -4740,7 +4743,7 @@
         <v>23677.07</v>
       </c>
       <c r="H53">
-        <v>-14.62</v>
+        <v>-15.99</v>
       </c>
       <c r="I53">
         <v>138.73</v>
@@ -4775,7 +4778,7 @@
         <v>67</v>
       </c>
       <c r="C54">
-        <v>263</v>
+        <v>261.55</v>
       </c>
       <c r="D54">
         <v>59</v>
@@ -4790,7 +4793,7 @@
         <v>619.95</v>
       </c>
       <c r="H54">
-        <v>-12.29</v>
+        <v>-12.77</v>
       </c>
       <c r="I54">
         <v>89.15000000000001</v>
@@ -4825,7 +4828,7 @@
         <v>68</v>
       </c>
       <c r="C55">
-        <v>449.75</v>
+        <v>440.65</v>
       </c>
       <c r="D55">
         <v>88</v>
@@ -4840,7 +4843,7 @@
         <v>17282.14</v>
       </c>
       <c r="H55">
-        <v>-23.04</v>
+        <v>-24.6</v>
       </c>
       <c r="I55">
         <v>151.57</v>
@@ -4875,7 +4878,7 @@
         <v>69</v>
       </c>
       <c r="C56">
-        <v>2809.9</v>
+        <v>2800</v>
       </c>
       <c r="D56">
         <v>63</v>
@@ -4890,7 +4893,7 @@
         <v>13926.29</v>
       </c>
       <c r="H56">
-        <v>-12.65</v>
+        <v>-12.96</v>
       </c>
       <c r="I56">
         <v>51.83</v>
@@ -4925,7 +4928,7 @@
         <v>70</v>
       </c>
       <c r="C57">
-        <v>434.95</v>
+        <v>431</v>
       </c>
       <c r="D57">
         <v>53</v>
@@ -4940,7 +4943,7 @@
         <v>8535.42</v>
       </c>
       <c r="H57">
-        <v>-20.72</v>
+        <v>-21.44</v>
       </c>
       <c r="I57">
         <v>51.28</v>
@@ -4975,7 +4978,7 @@
         <v>71</v>
       </c>
       <c r="C58">
-        <v>379.75</v>
+        <v>373</v>
       </c>
       <c r="D58">
         <v>53</v>
@@ -4990,7 +4993,7 @@
         <v>4663.51</v>
       </c>
       <c r="H58">
-        <v>-15.59</v>
+        <v>-17.09</v>
       </c>
       <c r="I58">
         <v>41.93</v>
@@ -5025,7 +5028,7 @@
         <v>72</v>
       </c>
       <c r="C59">
-        <v>716.5</v>
+        <v>697.95</v>
       </c>
       <c r="D59">
         <v>89</v>
@@ -5040,7 +5043,7 @@
         <v>3487.67</v>
       </c>
       <c r="H59">
-        <v>-15.41</v>
+        <v>-17.6</v>
       </c>
       <c r="I59">
         <v>185.4</v>
@@ -5075,7 +5078,7 @@
         <v>73</v>
       </c>
       <c r="C60">
-        <v>359.55</v>
+        <v>358</v>
       </c>
       <c r="D60">
         <v>75</v>
@@ -5090,7 +5093,7 @@
         <v>11145.45</v>
       </c>
       <c r="H60">
-        <v>-6.61</v>
+        <v>-7.01</v>
       </c>
       <c r="I60">
         <v>108.43</v>
@@ -5125,7 +5128,7 @@
         <v>74</v>
       </c>
       <c r="C61">
-        <v>1109.5</v>
+        <v>1123.95</v>
       </c>
       <c r="D61">
         <v>57</v>
@@ -5140,7 +5143,7 @@
         <v>9944.799999999999</v>
       </c>
       <c r="H61">
-        <v>-19.79</v>
+        <v>-18.75</v>
       </c>
       <c r="I61">
         <v>43.6</v>
@@ -5175,7 +5178,7 @@
         <v>75</v>
       </c>
       <c r="C62">
-        <v>175.5</v>
+        <v>174</v>
       </c>
       <c r="D62">
         <v>70</v>
@@ -5190,7 +5193,7 @@
         <v>1271.08</v>
       </c>
       <c r="H62">
-        <v>-29.35</v>
+        <v>-29.95</v>
       </c>
       <c r="I62">
         <v>77.66</v>
@@ -5275,7 +5278,7 @@
         <v>77</v>
       </c>
       <c r="C64">
-        <v>216.5</v>
+        <v>216.75</v>
       </c>
       <c r="D64">
         <v>53</v>
@@ -5290,7 +5293,7 @@
         <v>642.64</v>
       </c>
       <c r="H64">
-        <v>-26.11</v>
+        <v>-26.02</v>
       </c>
       <c r="I64">
         <v>60.02</v>
@@ -5325,7 +5328,7 @@
         <v>78</v>
       </c>
       <c r="C65">
-        <v>188.05</v>
+        <v>192.05</v>
       </c>
       <c r="D65">
         <v>70</v>
@@ -5340,7 +5343,7 @@
         <v>774.3099999999999</v>
       </c>
       <c r="H65">
-        <v>-24.75</v>
+        <v>-23.15</v>
       </c>
       <c r="I65">
         <v>64.58</v>
@@ -5475,7 +5478,7 @@
         <v>81</v>
       </c>
       <c r="C68">
-        <v>217.34</v>
+        <v>217.5</v>
       </c>
       <c r="D68">
         <v>87</v>
@@ -5490,7 +5493,7 @@
         <v>1221.78</v>
       </c>
       <c r="H68">
-        <v>-14.52</v>
+        <v>-14.46</v>
       </c>
       <c r="I68">
         <v>102.78</v>
@@ -5525,7 +5528,7 @@
         <v>82</v>
       </c>
       <c r="C69">
-        <v>6720.05</v>
+        <v>6264.9</v>
       </c>
       <c r="D69">
         <v>87</v>
@@ -5540,7 +5543,7 @@
         <v>21643.83</v>
       </c>
       <c r="H69">
-        <v>-1.01</v>
+        <v>-7.71</v>
       </c>
       <c r="I69">
         <v>126.75</v>
@@ -5575,7 +5578,7 @@
         <v>83</v>
       </c>
       <c r="C70">
-        <v>370.55</v>
+        <v>365</v>
       </c>
       <c r="D70">
         <v>96</v>
@@ -5590,7 +5593,7 @@
         <v>11940.8</v>
       </c>
       <c r="H70">
-        <v>-17.46</v>
+        <v>-18.7</v>
       </c>
       <c r="I70">
         <v>308.19</v>
@@ -5625,7 +5628,7 @@
         <v>84</v>
       </c>
       <c r="C71">
-        <v>2738.1</v>
+        <v>2762.1</v>
       </c>
       <c r="D71">
         <v>89</v>
@@ -5640,7 +5643,7 @@
         <v>5489.15</v>
       </c>
       <c r="H71">
-        <v>-5.58</v>
+        <v>-4.76</v>
       </c>
       <c r="I71">
         <v>183.65</v>
@@ -5675,7 +5678,7 @@
         <v>85</v>
       </c>
       <c r="C72">
-        <v>6678.2</v>
+        <v>6620</v>
       </c>
       <c r="D72">
         <v>92</v>
@@ -5690,7 +5693,7 @@
         <v>34097.52</v>
       </c>
       <c r="H72">
-        <v>-1.93</v>
+        <v>-2.78</v>
       </c>
       <c r="I72">
         <v>209.2</v>
@@ -5725,7 +5728,7 @@
         <v>86</v>
       </c>
       <c r="C73">
-        <v>468.25</v>
+        <v>461.25</v>
       </c>
       <c r="D73">
         <v>92</v>
@@ -5740,7 +5743,7 @@
         <v>16637.67</v>
       </c>
       <c r="H73">
-        <v>-10.81</v>
+        <v>-12.14</v>
       </c>
       <c r="I73">
         <v>110.31</v>
@@ -5775,7 +5778,7 @@
         <v>87</v>
       </c>
       <c r="C74">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D74">
         <v>77</v>
@@ -5790,7 +5793,7 @@
         <v>779.24</v>
       </c>
       <c r="H74">
-        <v>-24.03</v>
+        <v>-24.81</v>
       </c>
       <c r="I74">
         <v>68.3</v>
@@ -5825,7 +5828,7 @@
         <v>88</v>
       </c>
       <c r="C75">
-        <v>431</v>
+        <v>418.9</v>
       </c>
       <c r="D75">
         <v>91</v>
@@ -5840,7 +5843,7 @@
         <v>2416.7</v>
       </c>
       <c r="H75">
-        <v>-11.1</v>
+        <v>-13.59</v>
       </c>
       <c r="I75">
         <v>163.87</v>
@@ -5875,7 +5878,7 @@
         <v>89</v>
       </c>
       <c r="C76">
-        <v>2217.85</v>
+        <v>2182</v>
       </c>
       <c r="D76">
         <v>88</v>
@@ -5890,7 +5893,7 @@
         <v>9210.780000000001</v>
       </c>
       <c r="H76">
-        <v>-6.02</v>
+        <v>-7.54</v>
       </c>
       <c r="I76">
         <v>167.44</v>
@@ -5925,7 +5928,7 @@
         <v>90</v>
       </c>
       <c r="C77">
-        <v>3678.15</v>
+        <v>3666.55</v>
       </c>
       <c r="D77">
         <v>93</v>
@@ -5940,7 +5943,7 @@
         <v>8828.969999999999</v>
       </c>
       <c r="H77">
-        <v>-12.8</v>
+        <v>-13.07</v>
       </c>
       <c r="I77">
         <v>199.24</v>
@@ -5975,7 +5978,7 @@
         <v>91</v>
       </c>
       <c r="C78">
-        <v>107.11</v>
+        <v>106.84</v>
       </c>
       <c r="D78">
         <v>86</v>
@@ -5990,7 +5993,7 @@
         <v>10546.05</v>
       </c>
       <c r="H78">
-        <v>-26.4</v>
+        <v>-26.59</v>
       </c>
       <c r="I78">
         <v>88.09</v>
@@ -6025,7 +6028,7 @@
         <v>92</v>
       </c>
       <c r="C79">
-        <v>2602.95</v>
+        <v>2574</v>
       </c>
       <c r="D79">
         <v>84</v>
@@ -6040,7 +6043,7 @@
         <v>24701.5</v>
       </c>
       <c r="H79">
-        <v>-3.11</v>
+        <v>-4.19</v>
       </c>
       <c r="I79">
         <v>105.89</v>
@@ -6075,7 +6078,7 @@
         <v>93</v>
       </c>
       <c r="C80">
-        <v>2271.65</v>
+        <v>2286</v>
       </c>
       <c r="D80">
         <v>78</v>
@@ -6090,7 +6093,7 @@
         <v>29896.03</v>
       </c>
       <c r="H80">
-        <v>-2.62</v>
+        <v>-2</v>
       </c>
       <c r="I80">
         <v>95.84</v>
@@ -6125,7 +6128,7 @@
         <v>94</v>
       </c>
       <c r="C81">
-        <v>2778.6</v>
+        <v>2754</v>
       </c>
       <c r="D81">
         <v>88</v>
@@ -6140,7 +6143,7 @@
         <v>31644.59</v>
       </c>
       <c r="H81">
-        <v>-11.51</v>
+        <v>-12.29</v>
       </c>
       <c r="I81">
         <v>170.73</v>
@@ -6175,7 +6178,7 @@
         <v>95</v>
       </c>
       <c r="C82">
-        <v>115</v>
+        <v>113.05</v>
       </c>
       <c r="D82">
         <v>82</v>
@@ -6190,7 +6193,7 @@
         <v>809.67</v>
       </c>
       <c r="H82">
-        <v>-19.8</v>
+        <v>-21.16</v>
       </c>
       <c r="I82">
         <v>104.6</v>
@@ -6225,7 +6228,7 @@
         <v>96</v>
       </c>
       <c r="C83">
-        <v>966.9</v>
+        <v>983</v>
       </c>
       <c r="D83">
         <v>91</v>
@@ -6240,7 +6243,7 @@
         <v>1997.73</v>
       </c>
       <c r="H83">
-        <v>-8.880000000000001</v>
+        <v>-7.36</v>
       </c>
       <c r="I83">
         <v>206.76</v>
@@ -6275,7 +6278,7 @@
         <v>97</v>
       </c>
       <c r="C84">
-        <v>1344.5</v>
+        <v>1407</v>
       </c>
       <c r="D84">
         <v>57</v>
@@ -6290,7 +6293,7 @@
         <v>3506.83</v>
       </c>
       <c r="H84">
-        <v>5.08</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="I84">
         <v>41.06</v>
@@ -6375,7 +6378,7 @@
         <v>99</v>
       </c>
       <c r="C86">
-        <v>1680.4</v>
+        <v>1651.5</v>
       </c>
       <c r="D86">
         <v>87</v>
@@ -6390,7 +6393,7 @@
         <v>11490.72</v>
       </c>
       <c r="H86">
-        <v>-10.66</v>
+        <v>-12.2</v>
       </c>
       <c r="I86">
         <v>104.06</v>
@@ -6475,7 +6478,7 @@
         <v>101</v>
       </c>
       <c r="C88">
-        <v>70.61</v>
+        <v>72.02</v>
       </c>
       <c r="D88">
         <v>89</v>
@@ -6490,7 +6493,7 @@
         <v>947.83</v>
       </c>
       <c r="H88">
-        <v>-24.7</v>
+        <v>-23.2</v>
       </c>
       <c r="I88">
         <v>140.17</v>
@@ -6525,7 +6528,7 @@
         <v>102</v>
       </c>
       <c r="C89">
-        <v>1118.35</v>
+        <v>1117</v>
       </c>
       <c r="D89">
         <v>95</v>
@@ -6540,7 +6543,7 @@
         <v>16426.23</v>
       </c>
       <c r="H89">
-        <v>-0.72</v>
+        <v>-0.84</v>
       </c>
       <c r="I89">
         <v>402.06</v>
@@ -6575,7 +6578,7 @@
         <v>103</v>
       </c>
       <c r="C90">
-        <v>690.4</v>
+        <v>692</v>
       </c>
       <c r="D90">
         <v>92</v>
@@ -6590,7 +6593,7 @@
         <v>23602.44</v>
       </c>
       <c r="H90">
-        <v>-13.29</v>
+        <v>-13.09</v>
       </c>
       <c r="I90">
         <v>213.8</v>
@@ -6625,7 +6628,7 @@
         <v>104</v>
       </c>
       <c r="C91">
-        <v>2428.15</v>
+        <v>2444.95</v>
       </c>
       <c r="D91">
         <v>72</v>
@@ -6640,7 +6643,7 @@
         <v>3049.92</v>
       </c>
       <c r="H91">
-        <v>-8.02</v>
+        <v>-7.39</v>
       </c>
       <c r="I91">
         <v>94.84</v>
@@ -6675,7 +6678,7 @@
         <v>105</v>
       </c>
       <c r="C92">
-        <v>268.1</v>
+        <v>271</v>
       </c>
       <c r="D92">
         <v>89</v>
@@ -6690,7 +6693,7 @@
         <v>12242.23</v>
       </c>
       <c r="H92">
-        <v>-18.46</v>
+        <v>-17.58</v>
       </c>
       <c r="I92">
         <v>177.22</v>
@@ -6725,7 +6728,7 @@
         <v>106</v>
       </c>
       <c r="C93">
-        <v>231.79</v>
+        <v>252.9</v>
       </c>
       <c r="D93">
         <v>85</v>
@@ -6740,7 +6743,7 @@
         <v>28899.98</v>
       </c>
       <c r="H93">
-        <v>-5</v>
+        <v>3.65</v>
       </c>
       <c r="I93">
         <v>149.13</v>
@@ -6775,7 +6778,7 @@
         <v>107</v>
       </c>
       <c r="C94">
-        <v>979.3</v>
+        <v>987.85</v>
       </c>
       <c r="D94">
         <v>72</v>
@@ -6790,7 +6793,7 @@
         <v>4739.93</v>
       </c>
       <c r="H94">
-        <v>-7.14</v>
+        <v>-6.33</v>
       </c>
       <c r="I94">
         <v>61.67</v>
@@ -6825,7 +6828,7 @@
         <v>108</v>
       </c>
       <c r="C95">
-        <v>109.5</v>
+        <v>113.9</v>
       </c>
       <c r="D95">
         <v>68</v>
@@ -6840,7 +6843,7 @@
         <v>595.08</v>
       </c>
       <c r="H95">
-        <v>-17.42</v>
+        <v>-14.1</v>
       </c>
       <c r="I95">
         <v>72.41</v>
@@ -6875,7 +6878,7 @@
         <v>109</v>
       </c>
       <c r="C96">
-        <v>124.4</v>
+        <v>123.69</v>
       </c>
       <c r="D96">
         <v>68</v>
@@ -6890,7 +6893,7 @@
         <v>1423.74</v>
       </c>
       <c r="H96">
-        <v>-17.89</v>
+        <v>-18.36</v>
       </c>
       <c r="I96">
         <v>50.96</v>
@@ -6925,7 +6928,7 @@
         <v>110</v>
       </c>
       <c r="C97">
-        <v>513.05</v>
+        <v>516</v>
       </c>
       <c r="D97">
         <v>78</v>
@@ -6940,7 +6943,7 @@
         <v>1904.23</v>
       </c>
       <c r="H97">
-        <v>-19.82</v>
+        <v>-19.36</v>
       </c>
       <c r="I97">
         <v>73.68000000000001</v>
@@ -6975,7 +6978,7 @@
         <v>111</v>
       </c>
       <c r="C98">
-        <v>300.4</v>
+        <v>294.4</v>
       </c>
       <c r="D98">
         <v>88</v>
@@ -6990,7 +6993,7 @@
         <v>1060.02</v>
       </c>
       <c r="H98">
-        <v>-13.68</v>
+        <v>-15.4</v>
       </c>
       <c r="I98">
         <v>130.19</v>
@@ -7025,7 +7028,7 @@
         <v>112</v>
       </c>
       <c r="C99">
-        <v>43.49</v>
+        <v>43</v>
       </c>
       <c r="D99">
         <v>89</v>
@@ -7040,7 +7043,7 @@
         <v>1760.08</v>
       </c>
       <c r="H99">
-        <v>-32.59</v>
+        <v>-33.35</v>
       </c>
       <c r="I99">
         <v>166.09</v>
@@ -7075,7 +7078,7 @@
         <v>113</v>
       </c>
       <c r="C100">
-        <v>78.31</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D100">
         <v>88</v>
@@ -7090,7 +7093,7 @@
         <v>4397.33</v>
       </c>
       <c r="H100">
-        <v>-22.39</v>
+        <v>-24.58</v>
       </c>
       <c r="I100">
         <v>156.39</v>
@@ -7125,7 +7128,7 @@
         <v>114</v>
       </c>
       <c r="C101">
-        <v>259.15</v>
+        <v>257.3</v>
       </c>
       <c r="D101">
         <v>72</v>
@@ -7140,7 +7143,7 @@
         <v>8324.84</v>
       </c>
       <c r="H101">
-        <v>-6.55</v>
+        <v>-7.21</v>
       </c>
       <c r="I101">
         <v>54.07</v>
@@ -7175,7 +7178,7 @@
         <v>115</v>
       </c>
       <c r="C102">
-        <v>579.55</v>
+        <v>572</v>
       </c>
       <c r="D102">
         <v>89</v>
@@ -7190,7 +7193,7 @@
         <v>2612.94</v>
       </c>
       <c r="H102">
-        <v>-23.52</v>
+        <v>-24.52</v>
       </c>
       <c r="I102">
         <v>161.09</v>
@@ -7225,7 +7228,7 @@
         <v>116</v>
       </c>
       <c r="C103">
-        <v>9755</v>
+        <v>9750</v>
       </c>
       <c r="D103">
         <v>80</v>
@@ -7240,7 +7243,7 @@
         <v>38974.61</v>
       </c>
       <c r="H103">
-        <v>-11.32</v>
+        <v>-11.36</v>
       </c>
       <c r="I103">
         <v>113.45</v>
@@ -7275,7 +7278,7 @@
         <v>117</v>
       </c>
       <c r="C104">
-        <v>208.81</v>
+        <v>209.5</v>
       </c>
       <c r="D104">
         <v>79</v>
@@ -7290,7 +7293,7 @@
         <v>1242.71</v>
       </c>
       <c r="H104">
-        <v>-21.92</v>
+        <v>-21.66</v>
       </c>
       <c r="I104">
         <v>95.27</v>
@@ -7325,7 +7328,7 @@
         <v>118</v>
       </c>
       <c r="C105">
-        <v>950.8</v>
+        <v>925</v>
       </c>
       <c r="D105">
         <v>64</v>
@@ -7340,7 +7343,7 @@
         <v>24624.02</v>
       </c>
       <c r="H105">
-        <v>-20.91</v>
+        <v>-23.06</v>
       </c>
       <c r="I105">
         <v>56.9</v>
@@ -7375,7 +7378,7 @@
         <v>119</v>
       </c>
       <c r="C106">
-        <v>571.15</v>
+        <v>564</v>
       </c>
       <c r="D106">
         <v>72</v>
@@ -7390,7 +7393,7 @@
         <v>7665.7</v>
       </c>
       <c r="H106">
-        <v>-10.72</v>
+        <v>-11.83</v>
       </c>
       <c r="I106">
         <v>92.5</v>
@@ -7425,7 +7428,7 @@
         <v>120</v>
       </c>
       <c r="C107">
-        <v>378.25</v>
+        <v>370.5</v>
       </c>
       <c r="D107">
         <v>71</v>
@@ -7440,7 +7443,7 @@
         <v>3249.09</v>
       </c>
       <c r="H107">
-        <v>-19</v>
+        <v>-20.66</v>
       </c>
       <c r="I107">
         <v>56.56</v>
@@ -7475,7 +7478,7 @@
         <v>121</v>
       </c>
       <c r="C108">
-        <v>4535.2</v>
+        <v>4495.2</v>
       </c>
       <c r="D108">
         <v>79</v>
@@ -7490,7 +7493,7 @@
         <v>22474.28</v>
       </c>
       <c r="H108">
-        <v>-8.75</v>
+        <v>-9.550000000000001</v>
       </c>
       <c r="I108">
         <v>104.5</v>
@@ -7525,7 +7528,7 @@
         <v>122</v>
       </c>
       <c r="C109">
-        <v>159.43</v>
+        <v>165.01</v>
       </c>
       <c r="D109">
         <v>71</v>
@@ -7540,7 +7543,7 @@
         <v>2877.94</v>
       </c>
       <c r="H109">
-        <v>-17.05</v>
+        <v>-14.15</v>
       </c>
       <c r="I109">
         <v>76.5</v>
@@ -7575,7 +7578,7 @@
         <v>123</v>
       </c>
       <c r="C110">
-        <v>281</v>
+        <v>277.4</v>
       </c>
       <c r="D110">
         <v>67</v>
@@ -7590,7 +7593,7 @@
         <v>5488.63</v>
       </c>
       <c r="H110">
-        <v>-14.82</v>
+        <v>-15.91</v>
       </c>
       <c r="I110">
         <v>60.71</v>
@@ -7625,7 +7628,7 @@
         <v>124</v>
       </c>
       <c r="C111">
-        <v>362.2</v>
+        <v>351.1</v>
       </c>
       <c r="D111">
         <v>66</v>
@@ -7640,7 +7643,7 @@
         <v>1491.64</v>
       </c>
       <c r="H111">
-        <v>-16.73</v>
+        <v>-19.28</v>
       </c>
       <c r="I111">
         <v>128.57</v>
@@ -7675,7 +7678,7 @@
         <v>125</v>
       </c>
       <c r="C112">
-        <v>847.45</v>
+        <v>840</v>
       </c>
       <c r="D112">
         <v>80</v>
@@ -7690,7 +7693,7 @@
         <v>21477.77</v>
       </c>
       <c r="H112">
-        <v>-15.92</v>
+        <v>-16.66</v>
       </c>
       <c r="I112">
         <v>90.54000000000001</v>
@@ -7725,7 +7728,7 @@
         <v>126</v>
       </c>
       <c r="C113">
-        <v>820.5</v>
+        <v>830</v>
       </c>
       <c r="D113">
         <v>74</v>
@@ -7740,7 +7743,7 @@
         <v>23070.26</v>
       </c>
       <c r="H113">
-        <v>-14.25</v>
+        <v>-13.26</v>
       </c>
       <c r="I113">
         <v>96.69</v>
@@ -7775,7 +7778,7 @@
         <v>127</v>
       </c>
       <c r="C114">
-        <v>188.17</v>
+        <v>187.05</v>
       </c>
       <c r="D114">
         <v>79</v>
@@ -7790,7 +7793,7 @@
         <v>24928.67</v>
       </c>
       <c r="H114">
-        <v>-11.45</v>
+        <v>-11.97</v>
       </c>
       <c r="I114">
         <v>128.51</v>
@@ -7825,7 +7828,7 @@
         <v>128</v>
       </c>
       <c r="C115">
-        <v>204.9</v>
+        <v>209.06</v>
       </c>
       <c r="D115">
         <v>91</v>
@@ -7840,7 +7843,7 @@
         <v>27129.35</v>
       </c>
       <c r="H115">
-        <v>-21.76</v>
+        <v>-20.18</v>
       </c>
       <c r="I115">
         <v>339.22</v>
@@ -7875,7 +7878,7 @@
         <v>129</v>
       </c>
       <c r="C116">
-        <v>257.99</v>
+        <v>260</v>
       </c>
       <c r="D116">
         <v>65</v>
@@ -7890,7 +7893,7 @@
         <v>812.4299999999999</v>
       </c>
       <c r="H116">
-        <v>-7.86</v>
+        <v>-7.14</v>
       </c>
       <c r="I116">
         <v>61.93</v>
@@ -7925,7 +7928,7 @@
         <v>130</v>
       </c>
       <c r="C117">
-        <v>177.23</v>
+        <v>174.1</v>
       </c>
       <c r="D117">
         <v>76</v>
@@ -7940,7 +7943,7 @@
         <v>3635.43</v>
       </c>
       <c r="H117">
-        <v>-15.94</v>
+        <v>-17.43</v>
       </c>
       <c r="I117">
         <v>96.48</v>
@@ -7975,7 +7978,7 @@
         <v>131</v>
       </c>
       <c r="C118">
-        <v>181.93</v>
+        <v>179.6</v>
       </c>
       <c r="D118">
         <v>74</v>
@@ -7990,7 +7993,7 @@
         <v>2079.66</v>
       </c>
       <c r="H118">
-        <v>-16.33</v>
+        <v>-17.4</v>
       </c>
       <c r="I118">
         <v>71.06</v>
@@ -8025,7 +8028,7 @@
         <v>132</v>
       </c>
       <c r="C119">
-        <v>946.8</v>
+        <v>950</v>
       </c>
       <c r="D119">
         <v>65</v>
@@ -8040,7 +8043,7 @@
         <v>17077.91</v>
       </c>
       <c r="H119">
-        <v>-11.02</v>
+        <v>-10.72</v>
       </c>
       <c r="I119">
         <v>61.9</v>
@@ -8075,7 +8078,7 @@
         <v>133</v>
       </c>
       <c r="C120">
-        <v>926.8</v>
+        <v>914</v>
       </c>
       <c r="D120">
         <v>70</v>
@@ -8090,7 +8093,7 @@
         <v>24819.16</v>
       </c>
       <c r="H120">
-        <v>-13.22</v>
+        <v>-14.42</v>
       </c>
       <c r="I120">
         <v>69.5</v>
@@ -8125,7 +8128,7 @@
         <v>134</v>
       </c>
       <c r="C121">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D121">
         <v>77</v>
@@ -8140,7 +8143,7 @@
         <v>898.5</v>
       </c>
       <c r="H121">
-        <v>-21.6</v>
+        <v>-23.56</v>
       </c>
       <c r="I121">
         <v>93.7</v>
@@ -8175,7 +8178,7 @@
         <v>135</v>
       </c>
       <c r="C122">
-        <v>2991.7</v>
+        <v>2975</v>
       </c>
       <c r="D122">
         <v>76</v>
@@ -8190,7 +8193,7 @@
         <v>36804.07</v>
       </c>
       <c r="H122">
-        <v>-14.15</v>
+        <v>-14.63</v>
       </c>
       <c r="I122">
         <v>78.56</v>
@@ -8225,7 +8228,7 @@
         <v>136</v>
       </c>
       <c r="C123">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="D123">
         <v>69</v>
@@ -8240,7 +8243,7 @@
         <v>10544.27</v>
       </c>
       <c r="H123">
-        <v>-19.54</v>
+        <v>-18.51</v>
       </c>
       <c r="I123">
         <v>77.20999999999999</v>
@@ -8275,7 +8278,7 @@
         <v>137</v>
       </c>
       <c r="C124">
-        <v>1986.2</v>
+        <v>1979</v>
       </c>
       <c r="D124">
         <v>70</v>
@@ -8290,7 +8293,7 @@
         <v>8851.85</v>
       </c>
       <c r="H124">
-        <v>-17.21</v>
+        <v>-17.51</v>
       </c>
       <c r="I124">
         <v>111.77</v>
@@ -8325,7 +8328,7 @@
         <v>138</v>
       </c>
       <c r="C125">
-        <v>213</v>
+        <v>224.5</v>
       </c>
       <c r="D125">
         <v>92</v>
@@ -8340,7 +8343,7 @@
         <v>1287.83</v>
       </c>
       <c r="H125">
-        <v>-29.68</v>
+        <v>-25.88</v>
       </c>
       <c r="I125">
         <v>312.94</v>
@@ -8375,7 +8378,7 @@
         <v>139</v>
       </c>
       <c r="C126">
-        <v>510.85</v>
+        <v>520.35</v>
       </c>
       <c r="D126">
         <v>62</v>
@@ -8390,7 +8393,7 @@
         <v>25838.29</v>
       </c>
       <c r="H126">
-        <v>-18.69</v>
+        <v>-17.18</v>
       </c>
       <c r="I126">
         <v>54.02</v>
@@ -8425,7 +8428,7 @@
         <v>140</v>
       </c>
       <c r="C127">
-        <v>1042</v>
+        <v>1000.05</v>
       </c>
       <c r="D127">
         <v>60</v>
@@ -8440,7 +8443,7 @@
         <v>792.87</v>
       </c>
       <c r="H127">
-        <v>-23.94</v>
+        <v>-27</v>
       </c>
       <c r="I127">
         <v>59.53</v>
@@ -8475,7 +8478,7 @@
         <v>141</v>
       </c>
       <c r="C128">
-        <v>235.96</v>
+        <v>231.24</v>
       </c>
       <c r="D128">
         <v>96</v>
@@ -8490,7 +8493,7 @@
         <v>1197.05</v>
       </c>
       <c r="H128">
-        <v>-5.84</v>
+        <v>-7.73</v>
       </c>
       <c r="I128">
         <v>266.11</v>
@@ -8525,7 +8528,7 @@
         <v>142</v>
       </c>
       <c r="C129">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D129">
         <v>87</v>
@@ -8540,7 +8543,7 @@
         <v>645.51</v>
       </c>
       <c r="H129">
-        <v>-13.62</v>
+        <v>-13.9</v>
       </c>
       <c r="I129">
         <v>151.14</v>
@@ -8575,7 +8578,7 @@
         <v>143</v>
       </c>
       <c r="C130">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="D130">
         <v>85</v>
@@ -8590,7 +8593,7 @@
         <v>5707.81</v>
       </c>
       <c r="H130">
-        <v>-12.62</v>
+        <v>-12.18</v>
       </c>
       <c r="I130">
         <v>103.18</v>
@@ -8625,7 +8628,7 @@
         <v>144</v>
       </c>
       <c r="C131">
-        <v>901.95</v>
+        <v>900</v>
       </c>
       <c r="D131">
         <v>86</v>
@@ -8640,7 +8643,7 @@
         <v>3272.21</v>
       </c>
       <c r="H131">
-        <v>-4.4</v>
+        <v>-4.61</v>
       </c>
       <c r="I131">
         <v>176.03</v>
@@ -8675,7 +8678,7 @@
         <v>145</v>
       </c>
       <c r="C132">
-        <v>101.5</v>
+        <v>102.6</v>
       </c>
       <c r="D132">
         <v>72</v>
@@ -8690,7 +8693,7 @@
         <v>1189.68</v>
       </c>
       <c r="H132">
-        <v>-19.25</v>
+        <v>-18.37</v>
       </c>
       <c r="I132">
         <v>64.09</v>
@@ -8725,7 +8728,7 @@
         <v>146</v>
       </c>
       <c r="C133">
-        <v>307</v>
+        <v>313.1</v>
       </c>
       <c r="D133">
         <v>87</v>
@@ -8740,7 +8743,7 @@
         <v>692.22</v>
       </c>
       <c r="H133">
-        <v>-1.13</v>
+        <v>0.84</v>
       </c>
       <c r="I133">
         <v>152.57</v>
@@ -8775,7 +8778,7 @@
         <v>147</v>
       </c>
       <c r="C134">
-        <v>745.1</v>
+        <v>764</v>
       </c>
       <c r="D134">
         <v>77</v>
@@ -8790,7 +8793,7 @@
         <v>47442.98</v>
       </c>
       <c r="H134">
-        <v>-21.79</v>
+        <v>-19.8</v>
       </c>
       <c r="I134">
         <v>140.35</v>
@@ -8825,7 +8828,7 @@
         <v>148</v>
       </c>
       <c r="C135">
-        <v>298.95</v>
+        <v>291.75</v>
       </c>
       <c r="D135">
         <v>88</v>
@@ -8840,7 +8843,7 @@
         <v>4167.16</v>
       </c>
       <c r="H135">
-        <v>-11.09</v>
+        <v>-13.23</v>
       </c>
       <c r="I135">
         <v>134.1</v>
@@ -8875,7 +8878,7 @@
         <v>149</v>
       </c>
       <c r="C136">
-        <v>96.56</v>
+        <v>94.15000000000001</v>
       </c>
       <c r="D136">
         <v>89</v>
@@ -8890,7 +8893,7 @@
         <v>2892.22</v>
       </c>
       <c r="H136">
-        <v>-14.09</v>
+        <v>-16.24</v>
       </c>
       <c r="I136">
         <v>113.25</v>
@@ -8925,7 +8928,7 @@
         <v>150</v>
       </c>
       <c r="C137">
-        <v>1296.25</v>
+        <v>1319</v>
       </c>
       <c r="D137">
         <v>89</v>
@@ -8940,7 +8943,7 @@
         <v>3008.56</v>
       </c>
       <c r="H137">
-        <v>-8.390000000000001</v>
+        <v>-6.78</v>
       </c>
       <c r="I137">
         <v>146.38</v>
@@ -8975,7 +8978,7 @@
         <v>151</v>
       </c>
       <c r="C138">
-        <v>290.75</v>
+        <v>286.55</v>
       </c>
       <c r="D138">
         <v>82</v>
@@ -8990,7 +8993,7 @@
         <v>3729.35</v>
       </c>
       <c r="H138">
-        <v>-13.47</v>
+        <v>-14.72</v>
       </c>
       <c r="I138">
         <v>112.2</v>
@@ -9025,7 +9028,7 @@
         <v>152</v>
       </c>
       <c r="C139">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="D139">
         <v>72</v>
@@ -9040,7 +9043,7 @@
         <v>1253.67</v>
       </c>
       <c r="H139">
-        <v>-2.78</v>
+        <v>-5.38</v>
       </c>
       <c r="I139">
         <v>73.01000000000001</v>
@@ -9075,7 +9078,7 @@
         <v>153</v>
       </c>
       <c r="C140">
-        <v>4395.45</v>
+        <v>4269</v>
       </c>
       <c r="D140">
         <v>75</v>
@@ -9090,7 +9093,7 @@
         <v>48197.79</v>
       </c>
       <c r="H140">
-        <v>-9.949999999999999</v>
+        <v>-12.54</v>
       </c>
       <c r="I140">
         <v>77.20999999999999</v>
@@ -9125,7 +9128,7 @@
         <v>154</v>
       </c>
       <c r="C141">
-        <v>282.4</v>
+        <v>276.75</v>
       </c>
       <c r="D141">
         <v>83</v>
@@ -9140,7 +9143,7 @@
         <v>521.17</v>
       </c>
       <c r="H141">
-        <v>-6.4</v>
+        <v>-8.27</v>
       </c>
       <c r="I141">
         <v>105.98</v>
@@ -9175,7 +9178,7 @@
         <v>155</v>
       </c>
       <c r="C142">
-        <v>200</v>
+        <v>199.5</v>
       </c>
       <c r="D142">
         <v>84</v>
@@ -9190,7 +9193,7 @@
         <v>649.76</v>
       </c>
       <c r="H142">
-        <v>-20.95</v>
+        <v>-21.15</v>
       </c>
       <c r="I142">
         <v>153.74</v>
@@ -9225,7 +9228,7 @@
         <v>156</v>
       </c>
       <c r="C143">
-        <v>324.05</v>
+        <v>313</v>
       </c>
       <c r="D143">
         <v>88</v>
@@ -9240,7 +9243,7 @@
         <v>1094.5</v>
       </c>
       <c r="H143">
-        <v>-4.66</v>
+        <v>-7.91</v>
       </c>
       <c r="I143">
         <v>147.53</v>
@@ -9275,7 +9278,7 @@
         <v>157</v>
       </c>
       <c r="C144">
-        <v>878.85</v>
+        <v>881.1</v>
       </c>
       <c r="D144">
         <v>88</v>
@@ -9290,7 +9293,7 @@
         <v>2912.38</v>
       </c>
       <c r="H144">
-        <v>-9.16</v>
+        <v>-8.93</v>
       </c>
       <c r="I144">
         <v>115.18</v>
@@ -9325,7 +9328,7 @@
         <v>158</v>
       </c>
       <c r="C145">
-        <v>2194.8</v>
+        <v>2194.1</v>
       </c>
       <c r="D145">
         <v>88</v>
@@ -9340,7 +9343,7 @@
         <v>6625.09</v>
       </c>
       <c r="H145">
-        <v>-16.23</v>
+        <v>-16.26</v>
       </c>
       <c r="I145">
         <v>156.11</v>
@@ -9375,7 +9378,7 @@
         <v>159</v>
       </c>
       <c r="C146">
-        <v>769.45</v>
+        <v>750</v>
       </c>
       <c r="D146">
         <v>92</v>
@@ -9390,7 +9393,7 @@
         <v>1864.39</v>
       </c>
       <c r="H146">
-        <v>-26.01</v>
+        <v>-27.88</v>
       </c>
       <c r="I146">
         <v>177.69</v>
@@ -9425,7 +9428,7 @@
         <v>160</v>
       </c>
       <c r="C147">
-        <v>1713.2</v>
+        <v>1704</v>
       </c>
       <c r="D147">
         <v>71</v>
@@ -9440,7 +9443,7 @@
         <v>6696.57</v>
       </c>
       <c r="H147">
-        <v>-4.82</v>
+        <v>-5.33</v>
       </c>
       <c r="I147">
         <v>75.83</v>
@@ -9475,7 +9478,7 @@
         <v>161</v>
       </c>
       <c r="C148">
-        <v>131.55</v>
+        <v>133.23</v>
       </c>
       <c r="D148">
         <v>95</v>
@@ -9490,7 +9493,7 @@
         <v>545.29</v>
       </c>
       <c r="H148">
-        <v>-16.61</v>
+        <v>-15.54</v>
       </c>
       <c r="I148">
         <v>393.03</v>
@@ -9525,7 +9528,7 @@
         <v>162</v>
       </c>
       <c r="C149">
-        <v>587.9</v>
+        <v>590</v>
       </c>
       <c r="D149">
         <v>95</v>
@@ -9540,7 +9543,7 @@
         <v>15326.52</v>
       </c>
       <c r="H149">
-        <v>-15.29</v>
+        <v>-14.99</v>
       </c>
       <c r="I149">
         <v>299.3</v>
@@ -9575,7 +9578,7 @@
         <v>163</v>
       </c>
       <c r="C150">
-        <v>776.9</v>
+        <v>793.6</v>
       </c>
       <c r="D150">
         <v>87</v>
@@ -9590,7 +9593,7 @@
         <v>9892.92</v>
       </c>
       <c r="H150">
-        <v>-11.23</v>
+        <v>-9.32</v>
       </c>
       <c r="I150">
         <v>141.81</v>
@@ -9625,7 +9628,7 @@
         <v>164</v>
       </c>
       <c r="C151">
-        <v>418.1</v>
+        <v>418.75</v>
       </c>
       <c r="D151">
         <v>86</v>
@@ -9640,7 +9643,7 @@
         <v>5216.93</v>
       </c>
       <c r="H151">
-        <v>-15.24</v>
+        <v>-15.1</v>
       </c>
       <c r="I151">
         <v>126.99</v>
@@ -9675,7 +9678,7 @@
         <v>165</v>
       </c>
       <c r="C152">
-        <v>923.75</v>
+        <v>917.8</v>
       </c>
       <c r="D152">
         <v>74</v>
@@ -9690,7 +9693,7 @@
         <v>3547.01</v>
       </c>
       <c r="H152">
-        <v>-18.19</v>
+        <v>-18.71</v>
       </c>
       <c r="I152">
         <v>75.3</v>
@@ -9725,7 +9728,7 @@
         <v>166</v>
       </c>
       <c r="C153">
-        <v>173.81</v>
+        <v>170.33</v>
       </c>
       <c r="D153">
         <v>73</v>
@@ -9740,7 +9743,7 @@
         <v>982.1799999999999</v>
       </c>
       <c r="H153">
-        <v>-8.08</v>
+        <v>-9.92</v>
       </c>
       <c r="I153">
         <v>108.91</v>
@@ -9775,7 +9778,7 @@
         <v>167</v>
       </c>
       <c r="C154">
-        <v>703.75</v>
+        <v>701.05</v>
       </c>
       <c r="D154">
         <v>75</v>
@@ -9790,7 +9793,7 @@
         <v>2244.17</v>
       </c>
       <c r="H154">
-        <v>-11.16</v>
+        <v>-11.5</v>
       </c>
       <c r="I154">
         <v>77.36</v>
@@ -9825,7 +9828,7 @@
         <v>168</v>
       </c>
       <c r="C155">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D155">
         <v>91</v>
@@ -9840,7 +9843,7 @@
         <v>5483.26</v>
       </c>
       <c r="H155">
-        <v>-29.62</v>
+        <v>-29.73</v>
       </c>
       <c r="I155">
         <v>195.95</v>
@@ -9875,7 +9878,7 @@
         <v>169</v>
       </c>
       <c r="C156">
-        <v>7474.55</v>
+        <v>7405</v>
       </c>
       <c r="D156">
         <v>93</v>
@@ -9890,7 +9893,7 @@
         <v>32893.03</v>
       </c>
       <c r="H156">
-        <v>-14.58</v>
+        <v>-15.37</v>
       </c>
       <c r="I156">
         <v>210.3</v>
@@ -9925,7 +9928,7 @@
         <v>170</v>
       </c>
       <c r="C157">
-        <v>60.15</v>
+        <v>60.4</v>
       </c>
       <c r="D157">
         <v>71</v>
@@ -9940,7 +9943,7 @@
         <v>3730.43</v>
       </c>
       <c r="H157">
-        <v>-12.83</v>
+        <v>-12.46</v>
       </c>
       <c r="I157">
         <v>83.28</v>
@@ -9975,7 +9978,7 @@
         <v>171</v>
       </c>
       <c r="C158">
-        <v>614.95</v>
+        <v>613.55</v>
       </c>
       <c r="D158">
         <v>80</v>
@@ -9990,7 +9993,7 @@
         <v>12383.35</v>
       </c>
       <c r="H158">
-        <v>-11.11</v>
+        <v>-11.31</v>
       </c>
       <c r="I158">
         <v>78.69</v>
@@ -10025,7 +10028,7 @@
         <v>172</v>
       </c>
       <c r="C159">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D159">
         <v>64</v>
@@ -10040,7 +10043,7 @@
         <v>5253.88</v>
       </c>
       <c r="H159">
-        <v>-7.19</v>
+        <v>-5.66</v>
       </c>
       <c r="I159">
         <v>54.23</v>
@@ -10075,7 +10078,7 @@
         <v>173</v>
       </c>
       <c r="C160">
-        <v>394.4</v>
+        <v>395.5</v>
       </c>
       <c r="D160">
         <v>56</v>
@@ -10090,7 +10093,7 @@
         <v>11907.79</v>
       </c>
       <c r="H160">
-        <v>-12.55</v>
+        <v>-12.31</v>
       </c>
       <c r="I160">
         <v>54.57</v>
@@ -10125,7 +10128,7 @@
         <v>174</v>
       </c>
       <c r="C161">
-        <v>1492.8</v>
+        <v>1462</v>
       </c>
       <c r="D161">
         <v>96</v>
@@ -10140,7 +10143,7 @@
         <v>2029.65</v>
       </c>
       <c r="H161">
-        <v>-7.85</v>
+        <v>-9.75</v>
       </c>
       <c r="I161">
         <v>477.96</v>
@@ -10175,7 +10178,7 @@
         <v>175</v>
       </c>
       <c r="C162">
-        <v>1477.95</v>
+        <v>1470.25</v>
       </c>
       <c r="D162">
         <v>84</v>
@@ -10190,7 +10193,7 @@
         <v>30939.32</v>
       </c>
       <c r="H162">
-        <v>-11.2</v>
+        <v>-11.66</v>
       </c>
       <c r="I162">
         <v>134.6</v>
@@ -10225,7 +10228,7 @@
         <v>176</v>
       </c>
       <c r="C163">
-        <v>25.37</v>
+        <v>25.19</v>
       </c>
       <c r="D163">
         <v>71</v>
@@ -10240,7 +10243,7 @@
         <v>4049.88</v>
       </c>
       <c r="H163">
-        <v>-24.16</v>
+        <v>-24.69</v>
       </c>
       <c r="I163">
         <v>74.13</v>
@@ -10275,7 +10278,7 @@
         <v>177</v>
       </c>
       <c r="C164">
-        <v>421</v>
+        <v>420.1</v>
       </c>
       <c r="D164">
         <v>74</v>
@@ -10290,7 +10293,7 @@
         <v>522.23</v>
       </c>
       <c r="H164">
-        <v>-6.24</v>
+        <v>-6.44</v>
       </c>
       <c r="I164">
         <v>78.81</v>
@@ -10325,7 +10328,7 @@
         <v>178</v>
       </c>
       <c r="C165">
-        <v>436.2</v>
+        <v>431</v>
       </c>
       <c r="D165">
         <v>49</v>
@@ -10340,7 +10343,7 @@
         <v>1564.69</v>
       </c>
       <c r="H165">
-        <v>-12.83</v>
+        <v>-13.87</v>
       </c>
       <c r="I165">
         <v>53.93</v>
@@ -10375,7 +10378,7 @@
         <v>179</v>
       </c>
       <c r="C166">
-        <v>530.85</v>
+        <v>522</v>
       </c>
       <c r="D166">
         <v>71</v>
@@ -10390,7 +10393,7 @@
         <v>21299.4</v>
       </c>
       <c r="H166">
-        <v>-8.470000000000001</v>
+        <v>-10</v>
       </c>
       <c r="I166">
         <v>52.09</v>
@@ -10425,7 +10428,7 @@
         <v>180</v>
       </c>
       <c r="C167">
-        <v>792</v>
+        <v>785.7</v>
       </c>
       <c r="D167">
         <v>56</v>
@@ -10440,7 +10443,7 @@
         <v>1650.58</v>
       </c>
       <c r="H167">
-        <v>-14.75</v>
+        <v>-15.43</v>
       </c>
       <c r="I167">
         <v>40.91</v>
@@ -10475,7 +10478,7 @@
         <v>181</v>
       </c>
       <c r="C168">
-        <v>1529.3</v>
+        <v>1522.5</v>
       </c>
       <c r="D168">
         <v>70</v>
@@ -10490,7 +10493,7 @@
         <v>6312.84</v>
       </c>
       <c r="H168">
-        <v>-16.11</v>
+        <v>-16.48</v>
       </c>
       <c r="I168">
         <v>53.54</v>
@@ -10525,7 +10528,7 @@
         <v>182</v>
       </c>
       <c r="C169">
-        <v>272.65</v>
+        <v>276.15</v>
       </c>
       <c r="D169">
         <v>80</v>
@@ -10540,7 +10543,7 @@
         <v>3837.03</v>
       </c>
       <c r="H169">
-        <v>-10.52</v>
+        <v>-9.369999999999999</v>
       </c>
       <c r="I169">
         <v>104.89</v>
@@ -10575,7 +10578,7 @@
         <v>183</v>
       </c>
       <c r="C170">
-        <v>565.05</v>
+        <v>575.4</v>
       </c>
       <c r="D170">
         <v>87</v>
@@ -10590,7 +10593,7 @@
         <v>28226.21</v>
       </c>
       <c r="H170">
-        <v>-17.95</v>
+        <v>-16.45</v>
       </c>
       <c r="I170">
         <v>155.25</v>
@@ -10625,7 +10628,7 @@
         <v>184</v>
       </c>
       <c r="C171">
-        <v>1018.85</v>
+        <v>1018</v>
       </c>
       <c r="D171">
         <v>89</v>
@@ -10640,7 +10643,7 @@
         <v>1829.84</v>
       </c>
       <c r="H171">
-        <v>-15.03</v>
+        <v>-15.1</v>
       </c>
       <c r="I171">
         <v>186.53</v>
@@ -10675,7 +10678,7 @@
         <v>185</v>
       </c>
       <c r="C172">
-        <v>909.05</v>
+        <v>907.85</v>
       </c>
       <c r="D172">
         <v>84</v>
@@ -10690,7 +10693,7 @@
         <v>1637.87</v>
       </c>
       <c r="H172">
-        <v>-12.37</v>
+        <v>-12.49</v>
       </c>
       <c r="I172">
         <v>127.63</v>
@@ -10725,7 +10728,7 @@
         <v>186</v>
       </c>
       <c r="C173">
-        <v>724</v>
+        <v>720.2</v>
       </c>
       <c r="D173">
         <v>72</v>
@@ -10740,7 +10743,7 @@
         <v>4119.91</v>
       </c>
       <c r="H173">
-        <v>-13.97</v>
+        <v>-14.42</v>
       </c>
       <c r="I173">
         <v>70.87</v>
@@ -10775,7 +10778,7 @@
         <v>187</v>
       </c>
       <c r="C174">
-        <v>1682.1</v>
+        <v>1672.9</v>
       </c>
       <c r="D174">
         <v>85</v>
@@ -10790,7 +10793,7 @@
         <v>47574.07</v>
       </c>
       <c r="H174">
-        <v>-8.130000000000001</v>
+        <v>-8.630000000000001</v>
       </c>
       <c r="I174">
         <v>133.47</v>
@@ -10825,7 +10828,7 @@
         <v>188</v>
       </c>
       <c r="C175">
-        <v>677.85</v>
+        <v>683</v>
       </c>
       <c r="D175">
         <v>73</v>
@@ -10840,7 +10843,7 @@
         <v>43699.06</v>
       </c>
       <c r="H175">
-        <v>-9.449999999999999</v>
+        <v>-8.76</v>
       </c>
       <c r="I175">
         <v>100.03</v>
@@ -10875,7 +10878,7 @@
         <v>189</v>
       </c>
       <c r="C176">
-        <v>89.23</v>
+        <v>90</v>
       </c>
       <c r="D176">
         <v>61</v>
@@ -10890,7 +10893,7 @@
         <v>7336.89</v>
       </c>
       <c r="H176">
-        <v>-9.27</v>
+        <v>-8.49</v>
       </c>
       <c r="I176">
         <v>53.45</v>
@@ -10925,7 +10928,7 @@
         <v>190</v>
       </c>
       <c r="C177">
-        <v>345</v>
+        <v>343.4</v>
       </c>
       <c r="D177">
         <v>46</v>
@@ -10940,7 +10943,7 @@
         <v>776.33</v>
       </c>
       <c r="H177">
-        <v>-21.57</v>
+        <v>-21.94</v>
       </c>
       <c r="I177">
         <v>53.58</v>
@@ -10975,7 +10978,7 @@
         <v>191</v>
       </c>
       <c r="C178">
-        <v>715.9</v>
+        <v>718</v>
       </c>
       <c r="D178">
         <v>69</v>
@@ -10990,7 +10993,7 @@
         <v>18692.37</v>
       </c>
       <c r="H178">
-        <v>-9.92</v>
+        <v>-9.66</v>
       </c>
       <c r="I178">
         <v>84.68000000000001</v>
@@ -11025,7 +11028,7 @@
         <v>192</v>
       </c>
       <c r="C179">
-        <v>1058.1</v>
+        <v>1034.35</v>
       </c>
       <c r="D179">
         <v>76</v>
@@ -11040,7 +11043,7 @@
         <v>13186.57</v>
       </c>
       <c r="H179">
-        <v>-20.75</v>
+        <v>-22.53</v>
       </c>
       <c r="I179">
         <v>76.08</v>
@@ -11075,7 +11078,7 @@
         <v>193</v>
       </c>
       <c r="C180">
-        <v>356.2</v>
+        <v>367</v>
       </c>
       <c r="D180">
         <v>59</v>
@@ -11090,7 +11093,7 @@
         <v>2395.07</v>
       </c>
       <c r="H180">
-        <v>-12.01</v>
+        <v>-9.34</v>
       </c>
       <c r="I180">
         <v>52.04</v>
@@ -11125,7 +11128,7 @@
         <v>194</v>
       </c>
       <c r="C181">
-        <v>1287.15</v>
+        <v>1294.95</v>
       </c>
       <c r="D181">
         <v>75</v>
@@ -11140,7 +11143,7 @@
         <v>17378.69</v>
       </c>
       <c r="H181">
-        <v>-15.43</v>
+        <v>-14.92</v>
       </c>
       <c r="I181">
         <v>58.81</v>
@@ -11175,7 +11178,7 @@
         <v>195</v>
       </c>
       <c r="C182">
-        <v>777.85</v>
+        <v>767.5</v>
       </c>
       <c r="D182">
         <v>86</v>
@@ -11190,7 +11193,7 @@
         <v>4374.18</v>
       </c>
       <c r="H182">
-        <v>-16.81</v>
+        <v>-17.91</v>
       </c>
       <c r="I182">
         <v>184.32</v>
@@ -11225,7 +11228,7 @@
         <v>196</v>
       </c>
       <c r="C183">
-        <v>263.1</v>
+        <v>260.6</v>
       </c>
       <c r="D183">
         <v>64</v>
@@ -11240,7 +11243,7 @@
         <v>1166.91</v>
       </c>
       <c r="H183">
-        <v>-22.16</v>
+        <v>-22.9</v>
       </c>
       <c r="I183">
         <v>108.97</v>
@@ -11275,7 +11278,7 @@
         <v>197</v>
       </c>
       <c r="C184">
-        <v>1027.95</v>
+        <v>1030</v>
       </c>
       <c r="D184">
         <v>66</v>
@@ -11290,7 +11293,7 @@
         <v>3009.88</v>
       </c>
       <c r="H184">
-        <v>-24.95</v>
+        <v>-24.8</v>
       </c>
       <c r="I184">
         <v>57.66</v>
@@ -11325,7 +11328,7 @@
         <v>198</v>
       </c>
       <c r="C185">
-        <v>1248.35</v>
+        <v>1255.65</v>
       </c>
       <c r="D185">
         <v>79</v>
@@ -11340,7 +11343,7 @@
         <v>3931.56</v>
       </c>
       <c r="H185">
-        <v>-19.41</v>
+        <v>-18.94</v>
       </c>
       <c r="I185">
         <v>104.33</v>
@@ -11375,7 +11378,7 @@
         <v>199</v>
       </c>
       <c r="C186">
-        <v>1151</v>
+        <v>1143.1</v>
       </c>
       <c r="D186">
         <v>52</v>
@@ -11390,7 +11393,7 @@
         <v>3640.53</v>
       </c>
       <c r="H186">
-        <v>-16.29</v>
+        <v>-16.87</v>
       </c>
       <c r="I186">
         <v>54.29</v>
@@ -11425,7 +11428,7 @@
         <v>200</v>
       </c>
       <c r="C187">
-        <v>730.95</v>
+        <v>740</v>
       </c>
       <c r="D187">
         <v>69</v>
@@ -11440,7 +11443,7 @@
         <v>13547.02</v>
       </c>
       <c r="H187">
-        <v>-11.58</v>
+        <v>-10.49</v>
       </c>
       <c r="I187">
         <v>64.51000000000001</v>
@@ -11475,7 +11478,7 @@
         <v>201</v>
       </c>
       <c r="C188">
-        <v>484.5</v>
+        <v>484</v>
       </c>
       <c r="D188">
         <v>62</v>
@@ -11490,7 +11493,7 @@
         <v>8388.77</v>
       </c>
       <c r="H188">
-        <v>-12.44</v>
+        <v>-12.53</v>
       </c>
       <c r="I188">
         <v>51.36</v>
@@ -11525,7 +11528,7 @@
         <v>202</v>
       </c>
       <c r="C189">
-        <v>518.2</v>
+        <v>517</v>
       </c>
       <c r="D189">
         <v>60</v>
@@ -11540,7 +11543,7 @@
         <v>8475.08</v>
       </c>
       <c r="H189">
-        <v>-21.35</v>
+        <v>-21.53</v>
       </c>
       <c r="I189">
         <v>51.63</v>
@@ -11575,7 +11578,7 @@
         <v>203</v>
       </c>
       <c r="C190">
-        <v>350</v>
+        <v>352.1</v>
       </c>
       <c r="D190">
         <v>77</v>
@@ -11590,7 +11593,7 @@
         <v>508.14</v>
       </c>
       <c r="H190">
-        <v>-18.6</v>
+        <v>-18.12</v>
       </c>
       <c r="I190">
         <v>87.48999999999999</v>
@@ -11625,7 +11628,7 @@
         <v>204</v>
       </c>
       <c r="C191">
-        <v>905.15</v>
+        <v>910</v>
       </c>
       <c r="D191">
         <v>90</v>
@@ -11640,7 +11643,7 @@
         <v>4249.44</v>
       </c>
       <c r="H191">
-        <v>-17.03</v>
+        <v>-16.59</v>
       </c>
       <c r="I191">
         <v>183.78</v>
@@ -11675,7 +11678,7 @@
         <v>205</v>
       </c>
       <c r="C192">
-        <v>132.2</v>
+        <v>140.15</v>
       </c>
       <c r="D192">
         <v>70</v>
@@ -11690,7 +11693,7 @@
         <v>668.99</v>
       </c>
       <c r="H192">
-        <v>-20.7</v>
+        <v>-15.93</v>
       </c>
       <c r="I192">
         <v>93.09</v>
@@ -11725,7 +11728,7 @@
         <v>206</v>
       </c>
       <c r="C193">
-        <v>230.17</v>
+        <v>227.49</v>
       </c>
       <c r="D193">
         <v>70</v>
@@ -11740,7 +11743,7 @@
         <v>6522.6</v>
       </c>
       <c r="H193">
-        <v>-19.16</v>
+        <v>-20.11</v>
       </c>
       <c r="I193">
         <v>92.42</v>
@@ -11775,7 +11778,7 @@
         <v>207</v>
       </c>
       <c r="C194">
-        <v>178.95</v>
+        <v>182.52</v>
       </c>
       <c r="D194">
         <v>64</v>
@@ -11790,7 +11793,7 @@
         <v>949.3099999999999</v>
       </c>
       <c r="H194">
-        <v>-20.56</v>
+        <v>-18.98</v>
       </c>
       <c r="I194">
         <v>67.09</v>
@@ -11825,7 +11828,7 @@
         <v>208</v>
       </c>
       <c r="C195">
-        <v>439.05</v>
+        <v>432.15</v>
       </c>
       <c r="D195">
         <v>65</v>
@@ -11840,7 +11843,7 @@
         <v>4993.25</v>
       </c>
       <c r="H195">
-        <v>-23.11</v>
+        <v>-24.32</v>
       </c>
       <c r="I195">
         <v>53.32</v>
@@ -11875,7 +11878,7 @@
         <v>209</v>
       </c>
       <c r="C196">
-        <v>1550</v>
+        <v>1549.6</v>
       </c>
       <c r="D196">
         <v>88</v>
@@ -11890,7 +11893,7 @@
         <v>18307.95</v>
       </c>
       <c r="H196">
-        <v>-14.93</v>
+        <v>-14.95</v>
       </c>
       <c r="I196">
         <v>227.96</v>
@@ -11925,7 +11928,7 @@
         <v>210</v>
       </c>
       <c r="C197">
-        <v>45.94</v>
+        <v>45.55</v>
       </c>
       <c r="D197">
         <v>81</v>
@@ -11940,7 +11943,7 @@
         <v>1210.6</v>
       </c>
       <c r="H197">
-        <v>-33.32</v>
+        <v>-33.89</v>
       </c>
       <c r="I197">
         <v>97.65000000000001</v>
@@ -11975,7 +11978,7 @@
         <v>211</v>
       </c>
       <c r="C198">
-        <v>1424.45</v>
+        <v>1402.35</v>
       </c>
       <c r="D198">
         <v>78</v>
@@ -11990,7 +11993,7 @@
         <v>20105.72</v>
       </c>
       <c r="H198">
-        <v>-13.51</v>
+        <v>-14.85</v>
       </c>
       <c r="I198">
         <v>178.93</v>
@@ -12025,7 +12028,7 @@
         <v>212</v>
       </c>
       <c r="C199">
-        <v>212.05</v>
+        <v>208.2</v>
       </c>
       <c r="D199">
         <v>62</v>
@@ -12040,7 +12043,7 @@
         <v>1049.39</v>
       </c>
       <c r="H199">
-        <v>-24.8</v>
+        <v>-26.17</v>
       </c>
       <c r="I199">
         <v>63.43</v>
@@ -12175,7 +12178,7 @@
         <v>215</v>
       </c>
       <c r="C202">
-        <v>287.4</v>
+        <v>280.93</v>
       </c>
       <c r="D202">
         <v>78</v>
@@ -12190,7 +12193,7 @@
         <v>2793.82</v>
       </c>
       <c r="H202">
-        <v>-13.36</v>
+        <v>-15.31</v>
       </c>
       <c r="I202">
         <v>70.36</v>
@@ -12225,7 +12228,7 @@
         <v>216</v>
       </c>
       <c r="C203">
-        <v>1829.85</v>
+        <v>1740</v>
       </c>
       <c r="D203">
         <v>93</v>
@@ -12240,7 +12243,7 @@
         <v>4194.11</v>
       </c>
       <c r="H203">
-        <v>-5.04</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="I203">
         <v>259.79</v>
@@ -12275,7 +12278,7 @@
         <v>217</v>
       </c>
       <c r="C204">
-        <v>1688.15</v>
+        <v>1679</v>
       </c>
       <c r="D204">
         <v>94</v>
@@ -12290,7 +12293,7 @@
         <v>10605.88</v>
       </c>
       <c r="H204">
-        <v>-11.41</v>
+        <v>-11.89</v>
       </c>
       <c r="I204">
         <v>287.55</v>
@@ -12325,7 +12328,7 @@
         <v>218</v>
       </c>
       <c r="C205">
-        <v>407.05</v>
+        <v>402.3</v>
       </c>
       <c r="D205">
         <v>76</v>
@@ -12340,7 +12343,7 @@
         <v>647.62</v>
       </c>
       <c r="H205">
-        <v>-9.24</v>
+        <v>-10.3</v>
       </c>
       <c r="I205">
         <v>117.09</v>
@@ -12375,7 +12378,7 @@
         <v>219</v>
       </c>
       <c r="C206">
-        <v>139.7</v>
+        <v>136.53</v>
       </c>
       <c r="D206">
         <v>82</v>
@@ -12390,7 +12393,7 @@
         <v>13540.17</v>
       </c>
       <c r="H206">
-        <v>-17.21</v>
+        <v>-19.09</v>
       </c>
       <c r="I206">
         <v>105.32</v>
@@ -12425,7 +12428,7 @@
         <v>220</v>
       </c>
       <c r="C207">
-        <v>703.7</v>
+        <v>692.9</v>
       </c>
       <c r="D207">
         <v>70</v>
@@ -12440,7 +12443,7 @@
         <v>2714.54</v>
       </c>
       <c r="H207">
-        <v>-13.42</v>
+        <v>-14.75</v>
       </c>
       <c r="I207">
         <v>61.22</v>
@@ -12475,7 +12478,7 @@
         <v>221</v>
       </c>
       <c r="C208">
-        <v>561.8</v>
+        <v>586.1</v>
       </c>
       <c r="D208">
         <v>79</v>
@@ -12490,7 +12493,7 @@
         <v>1921.98</v>
       </c>
       <c r="H208">
-        <v>-7.9</v>
+        <v>-3.92</v>
       </c>
       <c r="I208">
         <v>94.91</v>
@@ -12525,7 +12528,7 @@
         <v>222</v>
       </c>
       <c r="C209">
-        <v>106.79</v>
+        <v>109.5</v>
       </c>
       <c r="D209">
         <v>82</v>
@@ -12540,7 +12543,7 @@
         <v>1131.71</v>
       </c>
       <c r="H209">
-        <v>-14.43</v>
+        <v>-12.26</v>
       </c>
       <c r="I209">
         <v>120.93</v>
@@ -12575,7 +12578,7 @@
         <v>223</v>
       </c>
       <c r="C210">
-        <v>1124.95</v>
+        <v>1108.7</v>
       </c>
       <c r="D210">
         <v>92</v>
@@ -12590,7 +12593,7 @@
         <v>18130.16</v>
       </c>
       <c r="H210">
-        <v>-9.800000000000001</v>
+        <v>-11.1</v>
       </c>
       <c r="I210">
         <v>257.1</v>
@@ -12625,7 +12628,7 @@
         <v>224</v>
       </c>
       <c r="C211">
-        <v>31.31</v>
+        <v>33.24</v>
       </c>
       <c r="D211">
         <v>80</v>
@@ -12640,7 +12643,7 @@
         <v>2787.44</v>
       </c>
       <c r="H211">
-        <v>-10.29</v>
+        <v>-4.76</v>
       </c>
       <c r="I211">
         <v>198.29</v>
@@ -12725,7 +12728,7 @@
         <v>226</v>
       </c>
       <c r="C213">
-        <v>2662.3</v>
+        <v>2645</v>
       </c>
       <c r="D213">
         <v>88</v>
@@ -12740,7 +12743,7 @@
         <v>11115.09</v>
       </c>
       <c r="H213">
-        <v>-6.49</v>
+        <v>-7.1</v>
       </c>
       <c r="I213">
         <v>145.47</v>
@@ -12775,7 +12778,7 @@
         <v>227</v>
       </c>
       <c r="C214">
-        <v>169.46</v>
+        <v>167.95</v>
       </c>
       <c r="D214">
         <v>90</v>
@@ -12790,7 +12793,7 @@
         <v>3829.97</v>
       </c>
       <c r="H214">
-        <v>-17.5</v>
+        <v>-18.23</v>
       </c>
       <c r="I214">
         <v>99.52</v>
@@ -12825,7 +12828,7 @@
         <v>228</v>
       </c>
       <c r="C215">
-        <v>466.8</v>
+        <v>499</v>
       </c>
       <c r="D215">
         <v>75</v>
@@ -12840,7 +12843,7 @@
         <v>3099.76</v>
       </c>
       <c r="H215">
-        <v>-3.55</v>
+        <v>3.1</v>
       </c>
       <c r="I215">
         <v>91.52</v>
@@ -12875,7 +12878,7 @@
         <v>229</v>
       </c>
       <c r="C216">
-        <v>938</v>
+        <v>946</v>
       </c>
       <c r="D216">
         <v>56</v>
@@ -12890,7 +12893,7 @@
         <v>2332.97</v>
       </c>
       <c r="H216">
-        <v>-13.94</v>
+        <v>-13.21</v>
       </c>
       <c r="I216">
         <v>48.55</v>
@@ -12925,7 +12928,7 @@
         <v>230</v>
       </c>
       <c r="C217">
-        <v>402.1</v>
+        <v>397.6</v>
       </c>
       <c r="D217">
         <v>91</v>
@@ -12940,7 +12943,7 @@
         <v>3663.25</v>
       </c>
       <c r="H217">
-        <v>-16.92</v>
+        <v>-17.85</v>
       </c>
       <c r="I217">
         <v>168.19</v>
@@ -12975,7 +12978,7 @@
         <v>231</v>
       </c>
       <c r="C218">
-        <v>408.6</v>
+        <v>352</v>
       </c>
       <c r="D218">
         <v>90</v>
@@ -12990,7 +12993,7 @@
         <v>14107.15</v>
       </c>
       <c r="H218">
-        <v>-8.779999999999999</v>
+        <v>-21.42</v>
       </c>
       <c r="I218">
         <v>170.2</v>
@@ -13025,7 +13028,7 @@
         <v>232</v>
       </c>
       <c r="C219">
-        <v>367.4</v>
+        <v>374.8</v>
       </c>
       <c r="D219">
         <v>74</v>
@@ -13040,7 +13043,7 @@
         <v>1038.04</v>
       </c>
       <c r="H219">
-        <v>-10.17</v>
+        <v>-8.359999999999999</v>
       </c>
       <c r="I219">
         <v>93.76000000000001</v>
@@ -13075,7 +13078,7 @@
         <v>233</v>
       </c>
       <c r="C220">
-        <v>875.7</v>
+        <v>869</v>
       </c>
       <c r="D220">
         <v>70</v>
@@ -13090,7 +13093,7 @@
         <v>19530.12</v>
       </c>
       <c r="H220">
-        <v>-6.34</v>
+        <v>-7.06</v>
       </c>
       <c r="I220">
         <v>47.99</v>
@@ -13125,7 +13128,7 @@
         <v>234</v>
       </c>
       <c r="C221">
-        <v>1571</v>
+        <v>1583.9</v>
       </c>
       <c r="D221">
         <v>74</v>
@@ -13140,7 +13143,7 @@
         <v>39724.97</v>
       </c>
       <c r="H221">
-        <v>-8.06</v>
+        <v>-7.3</v>
       </c>
       <c r="I221">
         <v>63.1</v>
@@ -13175,7 +13178,7 @@
         <v>235</v>
       </c>
       <c r="C222">
-        <v>5523.65</v>
+        <v>5529</v>
       </c>
       <c r="D222">
         <v>88</v>
@@ -13190,7 +13193,7 @@
         <v>35009.86</v>
       </c>
       <c r="H222">
-        <v>-6.54</v>
+        <v>-6.45</v>
       </c>
       <c r="I222">
         <v>153.45</v>
@@ -13225,7 +13228,7 @@
         <v>236</v>
       </c>
       <c r="C223">
-        <v>45.33</v>
+        <v>45.88</v>
       </c>
       <c r="D223">
         <v>68</v>
@@ -13240,7 +13243,7 @@
         <v>5879.77</v>
       </c>
       <c r="H223">
-        <v>-16.98</v>
+        <v>-15.97</v>
       </c>
       <c r="I223">
         <v>69.3</v>
@@ -13275,7 +13278,7 @@
         <v>237</v>
       </c>
       <c r="C224">
-        <v>6729.45</v>
+        <v>6887.5</v>
       </c>
       <c r="D224">
         <v>88</v>
@@ -13290,7 +13293,7 @@
         <v>24544.72</v>
       </c>
       <c r="H224">
-        <v>-9.01</v>
+        <v>-6.87</v>
       </c>
       <c r="I224">
         <v>178.72</v>
@@ -13325,7 +13328,7 @@
         <v>238</v>
       </c>
       <c r="C225">
-        <v>551</v>
+        <v>546.75</v>
       </c>
       <c r="D225">
         <v>56</v>
@@ -13340,7 +13343,7 @@
         <v>10806.77</v>
       </c>
       <c r="H225">
-        <v>-13.51</v>
+        <v>-14.17</v>
       </c>
       <c r="I225">
         <v>40.64</v>
@@ -13375,7 +13378,7 @@
         <v>239</v>
       </c>
       <c r="C226">
-        <v>381.1</v>
+        <v>383.05</v>
       </c>
       <c r="D226">
         <v>53</v>
@@ -13390,7 +13393,7 @@
         <v>2006.49</v>
       </c>
       <c r="H226">
-        <v>-15.78</v>
+        <v>-15.35</v>
       </c>
       <c r="I226">
         <v>47.1</v>
@@ -13425,7 +13428,7 @@
         <v>240</v>
       </c>
       <c r="C227">
-        <v>1009.4</v>
+        <v>1004.05</v>
       </c>
       <c r="D227">
         <v>90</v>
@@ -13440,7 +13443,7 @@
         <v>3115.13</v>
       </c>
       <c r="H227">
-        <v>-12.07</v>
+        <v>-12.54</v>
       </c>
       <c r="I227">
         <v>138.57</v>
@@ -13475,7 +13478,7 @@
         <v>241</v>
       </c>
       <c r="C228">
-        <v>1315.45</v>
+        <v>1291.7</v>
       </c>
       <c r="D228">
         <v>71</v>
@@ -13490,7 +13493,7 @@
         <v>23230.95</v>
       </c>
       <c r="H228">
-        <v>-12.01</v>
+        <v>-13.6</v>
       </c>
       <c r="I228">
         <v>103.23</v>
@@ -13525,7 +13528,7 @@
         <v>242</v>
       </c>
       <c r="C229">
-        <v>2622</v>
+        <v>2595</v>
       </c>
       <c r="D229">
         <v>82</v>
@@ -13540,7 +13543,7 @@
         <v>16412.19</v>
       </c>
       <c r="H229">
-        <v>-13.71</v>
+        <v>-14.6</v>
       </c>
       <c r="I229">
         <v>117.22</v>
@@ -13575,7 +13578,7 @@
         <v>243</v>
       </c>
       <c r="C230">
-        <v>2047.4</v>
+        <v>2020</v>
       </c>
       <c r="D230">
         <v>87</v>
@@ -13590,7 +13593,7 @@
         <v>8565.120000000001</v>
       </c>
       <c r="H230">
-        <v>-14.93</v>
+        <v>-16.07</v>
       </c>
       <c r="I230">
         <v>136.37</v>
@@ -13625,7 +13628,7 @@
         <v>244</v>
       </c>
       <c r="C231">
-        <v>796</v>
+        <v>806</v>
       </c>
       <c r="D231">
         <v>67</v>
@@ -13640,7 +13643,7 @@
         <v>1272.03</v>
       </c>
       <c r="H231">
-        <v>-17.08</v>
+        <v>-16.04</v>
       </c>
       <c r="I231">
         <v>85.72</v>
@@ -13675,7 +13678,7 @@
         <v>245</v>
       </c>
       <c r="C232">
-        <v>2713.95</v>
+        <v>2792.55</v>
       </c>
       <c r="D232">
         <v>83</v>
@@ -13690,7 +13693,7 @@
         <v>18820.3</v>
       </c>
       <c r="H232">
-        <v>-8.77</v>
+        <v>-6.13</v>
       </c>
       <c r="I232">
         <v>114.2</v>
@@ -13725,7 +13728,7 @@
         <v>246</v>
       </c>
       <c r="C233">
-        <v>1020</v>
+        <v>1030.5</v>
       </c>
       <c r="D233">
         <v>81</v>
@@ -13740,7 +13743,7 @@
         <v>3393.13</v>
       </c>
       <c r="H233">
-        <v>-25</v>
+        <v>-24.23</v>
       </c>
       <c r="I233">
         <v>100.42</v>
@@ -13775,7 +13778,7 @@
         <v>247</v>
       </c>
       <c r="C234">
-        <v>181.18</v>
+        <v>178.95</v>
       </c>
       <c r="D234">
         <v>65</v>
@@ -13790,7 +13793,7 @@
         <v>4238.84</v>
       </c>
       <c r="H234">
-        <v>-8.949999999999999</v>
+        <v>-10.08</v>
       </c>
       <c r="I234">
         <v>62.72</v>
@@ -13825,7 +13828,7 @@
         <v>248</v>
       </c>
       <c r="C235">
-        <v>793.5</v>
+        <v>808.9</v>
       </c>
       <c r="D235">
         <v>88</v>
@@ -13840,7 +13843,7 @@
         <v>7944.05</v>
       </c>
       <c r="H235">
-        <v>-17.3</v>
+        <v>-15.7</v>
       </c>
       <c r="I235">
         <v>173.7</v>
@@ -13875,7 +13878,7 @@
         <v>249</v>
       </c>
       <c r="C236">
-        <v>2221.9</v>
+        <v>2221</v>
       </c>
       <c r="D236">
         <v>80</v>
@@ -13890,7 +13893,7 @@
         <v>6149.77</v>
       </c>
       <c r="H236">
-        <v>-16.15</v>
+        <v>-16.19</v>
       </c>
       <c r="I236">
         <v>96.59999999999999</v>
@@ -13925,7 +13928,7 @@
         <v>250</v>
       </c>
       <c r="C237">
-        <v>1953.75</v>
+        <v>1900</v>
       </c>
       <c r="D237">
         <v>79</v>
@@ -13940,7 +13943,7 @@
         <v>2843.96</v>
       </c>
       <c r="H237">
-        <v>-20.54</v>
+        <v>-22.72</v>
       </c>
       <c r="I237">
         <v>95.26000000000001</v>
@@ -13975,7 +13978,7 @@
         <v>251</v>
       </c>
       <c r="C238">
-        <v>2268.6</v>
+        <v>2236.9</v>
       </c>
       <c r="D238">
         <v>75</v>
@@ -13990,7 +13993,7 @@
         <v>29058.76</v>
       </c>
       <c r="H238">
-        <v>-7.39</v>
+        <v>-8.69</v>
       </c>
       <c r="I238">
         <v>93.09999999999999</v>
@@ -14025,7 +14028,7 @@
         <v>252</v>
       </c>
       <c r="C239">
-        <v>1299.85</v>
+        <v>1290</v>
       </c>
       <c r="D239">
         <v>61</v>
@@ -14040,7 +14043,7 @@
         <v>31331.49</v>
       </c>
       <c r="H239">
-        <v>-12.64</v>
+        <v>-13.3</v>
       </c>
       <c r="I239">
         <v>45.57</v>
@@ -14075,7 +14078,7 @@
         <v>253</v>
       </c>
       <c r="C240">
-        <v>123.95</v>
+        <v>123.45</v>
       </c>
       <c r="D240">
         <v>87</v>
@@ -14090,7 +14093,7 @@
         <v>2186.43</v>
       </c>
       <c r="H240">
-        <v>-12.98</v>
+        <v>-13.33</v>
       </c>
       <c r="I240">
         <v>300.25</v>
@@ -14125,7 +14128,7 @@
         <v>254</v>
       </c>
       <c r="C241">
-        <v>5516.7</v>
+        <v>5470</v>
       </c>
       <c r="D241">
         <v>76</v>
@@ -14140,7 +14143,7 @@
         <v>11411.73</v>
       </c>
       <c r="H241">
-        <v>-8.039999999999999</v>
+        <v>-8.82</v>
       </c>
       <c r="I241">
         <v>86.67</v>
@@ -14175,7 +14178,7 @@
         <v>255</v>
       </c>
       <c r="C242">
-        <v>1759.1</v>
+        <v>1750.7</v>
       </c>
       <c r="D242">
         <v>91</v>
@@ -14190,7 +14193,7 @@
         <v>14903.94</v>
       </c>
       <c r="H242">
-        <v>-11.94</v>
+        <v>-12.36</v>
       </c>
       <c r="I242">
         <v>172.82</v>
@@ -14225,7 +14228,7 @@
         <v>256</v>
       </c>
       <c r="C243">
-        <v>461.65</v>
+        <v>456.3</v>
       </c>
       <c r="D243">
         <v>71</v>
@@ -14240,7 +14243,7 @@
         <v>1885.01</v>
       </c>
       <c r="H243">
-        <v>-13.18</v>
+        <v>-14.19</v>
       </c>
       <c r="I243">
         <v>68.01000000000001</v>
@@ -14275,7 +14278,7 @@
         <v>257</v>
       </c>
       <c r="C244">
-        <v>546.8</v>
+        <v>547</v>
       </c>
       <c r="D244">
         <v>85</v>
@@ -14290,7 +14293,7 @@
         <v>4309.86</v>
       </c>
       <c r="H244">
-        <v>-18.99</v>
+        <v>-18.96</v>
       </c>
       <c r="I244">
         <v>127.97</v>
@@ -14325,7 +14328,7 @@
         <v>258</v>
       </c>
       <c r="C245">
-        <v>1695.95</v>
+        <v>1684.9</v>
       </c>
       <c r="D245">
         <v>77</v>
@@ -14340,7 +14343,7 @@
         <v>10469.59</v>
       </c>
       <c r="H245">
-        <v>-22.91</v>
+        <v>-23.41</v>
       </c>
       <c r="I245">
         <v>77.05</v>
@@ -14375,7 +14378,7 @@
         <v>259</v>
       </c>
       <c r="C246">
-        <v>2578.15</v>
+        <v>2591.5</v>
       </c>
       <c r="D246">
         <v>89</v>
@@ -14390,7 +14393,7 @@
         <v>14813.25</v>
       </c>
       <c r="H246">
-        <v>-12.6</v>
+        <v>-12.15</v>
       </c>
       <c r="I246">
         <v>255.81</v>
@@ -14425,7 +14428,7 @@
         <v>260</v>
       </c>
       <c r="C247">
-        <v>637.7</v>
+        <v>646.5</v>
       </c>
       <c r="D247">
         <v>49</v>
@@ -14440,7 +14443,7 @@
         <v>3752.9</v>
       </c>
       <c r="H247">
-        <v>-12.62</v>
+        <v>-11.41</v>
       </c>
       <c r="I247">
         <v>41.63</v>
@@ -14475,7 +14478,7 @@
         <v>261</v>
       </c>
       <c r="C248">
-        <v>668.45</v>
+        <v>684.95</v>
       </c>
       <c r="D248">
         <v>75</v>
@@ -14490,7 +14493,7 @@
         <v>11269.93</v>
       </c>
       <c r="H248">
-        <v>-20.14</v>
+        <v>-18.17</v>
       </c>
       <c r="I248">
         <v>74.20999999999999</v>
@@ -14525,7 +14528,7 @@
         <v>262</v>
       </c>
       <c r="C249">
-        <v>1429.8</v>
+        <v>1474</v>
       </c>
       <c r="D249">
         <v>66</v>
@@ -14540,7 +14543,7 @@
         <v>3874.14</v>
       </c>
       <c r="H249">
-        <v>-0.54</v>
+        <v>2.54</v>
       </c>
       <c r="I249">
         <v>55.66</v>
@@ -14575,7 +14578,7 @@
         <v>263</v>
       </c>
       <c r="C250">
-        <v>174</v>
+        <v>182.98</v>
       </c>
       <c r="D250">
         <v>77</v>
@@ -14590,7 +14593,7 @@
         <v>4419.41</v>
       </c>
       <c r="H250">
-        <v>-27.71</v>
+        <v>-23.98</v>
       </c>
       <c r="I250">
         <v>92.31999999999999</v>
@@ -14625,7 +14628,7 @@
         <v>264</v>
       </c>
       <c r="C251">
-        <v>586.95</v>
+        <v>581</v>
       </c>
       <c r="D251">
         <v>73</v>
@@ -14640,7 +14643,7 @@
         <v>9486.639999999999</v>
       </c>
       <c r="H251">
-        <v>-4.79</v>
+        <v>-5.76</v>
       </c>
       <c r="I251">
         <v>65.51000000000001</v>
@@ -14675,7 +14678,7 @@
         <v>265</v>
       </c>
       <c r="C252">
-        <v>390.45</v>
+        <v>391.95</v>
       </c>
       <c r="D252">
         <v>66</v>
@@ -14690,7 +14693,7 @@
         <v>22015.51</v>
       </c>
       <c r="H252">
-        <v>-16.87</v>
+        <v>-16.55</v>
       </c>
       <c r="I252">
         <v>53.32</v>
@@ -14725,7 +14728,7 @@
         <v>266</v>
       </c>
       <c r="C253">
-        <v>1050.85</v>
+        <v>1024.7</v>
       </c>
       <c r="D253">
         <v>72</v>
@@ -14740,7 +14743,7 @@
         <v>1662.24</v>
       </c>
       <c r="H253">
-        <v>-16.06</v>
+        <v>-18.15</v>
       </c>
       <c r="I253">
         <v>79.42</v>
@@ -14775,7 +14778,7 @@
         <v>267</v>
       </c>
       <c r="C254">
-        <v>445.65</v>
+        <v>441.95</v>
       </c>
       <c r="D254">
         <v>69</v>
@@ -14790,7 +14793,7 @@
         <v>20080.42</v>
       </c>
       <c r="H254">
-        <v>1.51</v>
+        <v>0.67</v>
       </c>
       <c r="I254">
         <v>59.59</v>
@@ -14825,7 +14828,7 @@
         <v>268</v>
       </c>
       <c r="C255">
-        <v>542.35</v>
+        <v>545</v>
       </c>
       <c r="D255">
         <v>85</v>
@@ -14840,7 +14843,7 @@
         <v>9444.049999999999</v>
       </c>
       <c r="H255">
-        <v>-21.89</v>
+        <v>-21.5</v>
       </c>
       <c r="I255">
         <v>192.42</v>
@@ -14875,7 +14878,7 @@
         <v>269</v>
       </c>
       <c r="C256">
-        <v>1827</v>
+        <v>1810</v>
       </c>
       <c r="D256">
         <v>78</v>
@@ -14890,7 +14893,7 @@
         <v>12413.77</v>
       </c>
       <c r="H256">
-        <v>-10.22</v>
+        <v>-11.05</v>
       </c>
       <c r="I256">
         <v>121.66</v>
@@ -14925,7 +14928,7 @@
         <v>270</v>
       </c>
       <c r="C257">
-        <v>1842.15</v>
+        <v>1819</v>
       </c>
       <c r="D257">
         <v>64</v>
@@ -14940,7 +14943,7 @@
         <v>19284.39</v>
       </c>
       <c r="H257">
-        <v>-30.85</v>
+        <v>-31.72</v>
       </c>
       <c r="I257">
         <v>63.77</v>
@@ -14975,7 +14978,7 @@
         <v>271</v>
       </c>
       <c r="C258">
-        <v>365.8</v>
+        <v>369.4</v>
       </c>
       <c r="D258">
         <v>83</v>
@@ -14990,7 +14993,7 @@
         <v>4602.77</v>
       </c>
       <c r="H258">
-        <v>-11.2</v>
+        <v>-10.33</v>
       </c>
       <c r="I258">
         <v>149.88</v>
@@ -15025,7 +15028,7 @@
         <v>272</v>
       </c>
       <c r="C259">
-        <v>738.2</v>
+        <v>734.05</v>
       </c>
       <c r="D259">
         <v>73</v>
@@ -15040,7 +15043,7 @@
         <v>21207.07</v>
       </c>
       <c r="H259">
-        <v>-8.18</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="I259">
         <v>73.87</v>
@@ -15075,7 +15078,7 @@
         <v>273</v>
       </c>
       <c r="C260">
-        <v>399.65</v>
+        <v>397.1</v>
       </c>
       <c r="D260">
         <v>73</v>
@@ -15090,7 +15093,7 @@
         <v>12113.22</v>
       </c>
       <c r="H260">
-        <v>-16.14</v>
+        <v>-16.67</v>
       </c>
       <c r="I260">
         <v>94.94</v>
@@ -15125,7 +15128,7 @@
         <v>274</v>
       </c>
       <c r="C261">
-        <v>709.8</v>
+        <v>702</v>
       </c>
       <c r="D261">
         <v>80</v>
@@ -15140,7 +15143,7 @@
         <v>4965.74</v>
       </c>
       <c r="H261">
-        <v>-24.97</v>
+        <v>-25.79</v>
       </c>
       <c r="I261">
         <v>90.43000000000001</v>
@@ -15175,7 +15178,7 @@
         <v>275</v>
       </c>
       <c r="C262">
-        <v>385.25</v>
+        <v>391.5</v>
       </c>
       <c r="D262">
         <v>61</v>
@@ -15190,7 +15193,7 @@
         <v>15685.27</v>
       </c>
       <c r="H262">
-        <v>-18.79</v>
+        <v>-17.47</v>
       </c>
       <c r="I262">
         <v>65.63</v>
@@ -15225,7 +15228,7 @@
         <v>276</v>
       </c>
       <c r="C263">
-        <v>8060</v>
+        <v>8022</v>
       </c>
       <c r="D263">
         <v>57</v>
@@ -15240,7 +15243,7 @@
         <v>4888.29</v>
       </c>
       <c r="H263">
-        <v>-17.09</v>
+        <v>-17.48</v>
       </c>
       <c r="I263">
         <v>72.09999999999999</v>
@@ -15275,7 +15278,7 @@
         <v>277</v>
       </c>
       <c r="C264">
-        <v>821.65</v>
+        <v>826</v>
       </c>
       <c r="D264">
         <v>86</v>
@@ -15290,7 +15293,7 @@
         <v>1202.66</v>
       </c>
       <c r="H264">
-        <v>-20</v>
+        <v>-19.57</v>
       </c>
       <c r="I264">
         <v>137.9</v>
@@ -15325,7 +15328,7 @@
         <v>278</v>
       </c>
       <c r="C265">
-        <v>887.25</v>
+        <v>890</v>
       </c>
       <c r="D265">
         <v>72</v>
@@ -15340,7 +15343,7 @@
         <v>2225.37</v>
       </c>
       <c r="H265">
-        <v>-21.7</v>
+        <v>-21.45</v>
       </c>
       <c r="I265">
         <v>71.95</v>
@@ -15375,7 +15378,7 @@
         <v>279</v>
       </c>
       <c r="C266">
-        <v>4315</v>
+        <v>4400.1</v>
       </c>
       <c r="D266">
         <v>96</v>
@@ -15390,7 +15393,7 @@
         <v>8902.049999999999</v>
       </c>
       <c r="H266">
-        <v>-15.8</v>
+        <v>-14.14</v>
       </c>
       <c r="I266">
         <v>378.31</v>
@@ -15425,7 +15428,7 @@
         <v>280</v>
       </c>
       <c r="C267">
-        <v>3166.6</v>
+        <v>3068</v>
       </c>
       <c r="D267">
         <v>67</v>
@@ -15440,7 +15443,7 @@
         <v>27209.19</v>
       </c>
       <c r="H267">
-        <v>-13.34</v>
+        <v>-16.04</v>
       </c>
       <c r="I267">
         <v>67.5</v>
@@ -15475,7 +15478,7 @@
         <v>281</v>
       </c>
       <c r="C268">
-        <v>903.15</v>
+        <v>914</v>
       </c>
       <c r="D268">
         <v>52</v>
@@ -15490,7 +15493,7 @@
         <v>6397.42</v>
       </c>
       <c r="H268">
-        <v>-14.7</v>
+        <v>-13.67</v>
       </c>
       <c r="I268">
         <v>47.38</v>
@@ -15525,7 +15528,7 @@
         <v>282</v>
       </c>
       <c r="C269">
-        <v>555.5</v>
+        <v>547</v>
       </c>
       <c r="D269">
         <v>60</v>
@@ -15540,7 +15543,7 @@
         <v>8306.49</v>
       </c>
       <c r="H269">
-        <v>-20.53</v>
+        <v>-21.75</v>
       </c>
       <c r="I269">
         <v>49.2</v>
@@ -15575,7 +15578,7 @@
         <v>283</v>
       </c>
       <c r="C270">
-        <v>3773.75</v>
+        <v>3770</v>
       </c>
       <c r="D270">
         <v>70</v>
@@ -15590,7 +15593,7 @@
         <v>3898.06</v>
       </c>
       <c r="H270">
-        <v>-16.14</v>
+        <v>-16.22</v>
       </c>
       <c r="I270">
         <v>78.25</v>
@@ -15625,7 +15628,7 @@
         <v>284</v>
       </c>
       <c r="C271">
-        <v>180.3</v>
+        <v>183.8</v>
       </c>
       <c r="D271">
         <v>89</v>
@@ -15640,7 +15643,7 @@
         <v>1180.07</v>
       </c>
       <c r="H271">
-        <v>-17.44</v>
+        <v>-15.83</v>
       </c>
       <c r="I271">
         <v>184.86</v>
@@ -15675,7 +15678,7 @@
         <v>285</v>
       </c>
       <c r="C272">
-        <v>529.6</v>
+        <v>525.95</v>
       </c>
       <c r="D272">
         <v>68</v>
@@ -15690,7 +15693,7 @@
         <v>1297.43</v>
       </c>
       <c r="H272">
-        <v>-20.71</v>
+        <v>-21.26</v>
       </c>
       <c r="I272">
         <v>69.62</v>
@@ -15725,7 +15728,7 @@
         <v>286</v>
       </c>
       <c r="C273">
-        <v>1486.65</v>
+        <v>1475</v>
       </c>
       <c r="D273">
         <v>66</v>
@@ -15740,7 +15743,7 @@
         <v>21055.65</v>
       </c>
       <c r="H273">
-        <v>-13.31</v>
+        <v>-13.99</v>
       </c>
       <c r="I273">
         <v>51.81</v>
@@ -15775,43 +15778,43 @@
         <v>287</v>
       </c>
       <c r="C274">
-        <v>4558.4</v>
+        <v>254</v>
       </c>
       <c r="D274">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E274" t="s">
         <v>469</v>
       </c>
       <c r="F274">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="G274">
-        <v>5255.56</v>
+        <v>3352.13</v>
       </c>
       <c r="H274">
-        <v>-19.88</v>
+        <v>-26.23</v>
       </c>
       <c r="I274">
-        <v>171.52</v>
+        <v>414.19</v>
       </c>
       <c r="J274">
-        <v>-4.52</v>
+        <v>-6</v>
       </c>
       <c r="K274">
-        <v>29.61</v>
+        <v>43.1</v>
       </c>
       <c r="L274">
         <v>50</v>
       </c>
       <c r="M274">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="N274">
-        <v>27400</v>
+        <v>336925</v>
       </c>
       <c r="O274" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="P274" t="b">
         <v>1</v>
@@ -15825,43 +15828,43 @@
         <v>288</v>
       </c>
       <c r="C275">
-        <v>258.35</v>
+        <v>85.97</v>
       </c>
       <c r="D275">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E275" t="s">
         <v>469</v>
       </c>
       <c r="F275">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="G275">
-        <v>3352.13</v>
+        <v>2102.11</v>
       </c>
       <c r="H275">
-        <v>-24.96</v>
+        <v>-25.11</v>
       </c>
       <c r="I275">
-        <v>414.19</v>
+        <v>172.99</v>
       </c>
       <c r="J275">
-        <v>-6</v>
+        <v>-3.45</v>
       </c>
       <c r="K275">
-        <v>43.1</v>
+        <v>48.96</v>
       </c>
       <c r="L275">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M275">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N275">
-        <v>336925</v>
+        <v>678061</v>
       </c>
       <c r="O275" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
       <c r="P275" t="b">
         <v>1</v>
@@ -15875,43 +15878,43 @@
         <v>289</v>
       </c>
       <c r="C276">
-        <v>84.5</v>
+        <v>343.9</v>
       </c>
       <c r="D276">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E276" t="s">
         <v>469</v>
       </c>
       <c r="F276">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="G276">
-        <v>2102.11</v>
+        <v>1540.9</v>
       </c>
       <c r="H276">
-        <v>-26.39</v>
+        <v>-22.57</v>
       </c>
       <c r="I276">
-        <v>172.99</v>
+        <v>104.12</v>
       </c>
       <c r="J276">
-        <v>-3.45</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="K276">
-        <v>48.96</v>
+        <v>9.08</v>
       </c>
       <c r="L276">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M276">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="N276">
-        <v>678061</v>
+        <v>242304</v>
       </c>
       <c r="O276" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P276" t="b">
         <v>1</v>
@@ -15925,43 +15928,43 @@
         <v>290</v>
       </c>
       <c r="C277">
-        <v>343.65</v>
+        <v>335.25</v>
       </c>
       <c r="D277">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E277" t="s">
         <v>469</v>
       </c>
       <c r="F277">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="G277">
-        <v>1540.9</v>
+        <v>2909.11</v>
       </c>
       <c r="H277">
-        <v>-22.63</v>
+        <v>-19.22</v>
       </c>
       <c r="I277">
-        <v>104.12</v>
+        <v>83.58</v>
       </c>
       <c r="J277">
-        <v>-8.199999999999999</v>
+        <v>-9.42</v>
       </c>
       <c r="K277">
-        <v>9.08</v>
+        <v>10.64</v>
       </c>
       <c r="L277">
         <v>48</v>
       </c>
       <c r="M277">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N277">
-        <v>242304</v>
+        <v>1937393</v>
       </c>
       <c r="O277" t="s">
-        <v>557</v>
+        <v>486</v>
       </c>
       <c r="P277" t="b">
         <v>1</v>
@@ -15975,43 +15978,43 @@
         <v>291</v>
       </c>
       <c r="C278">
-        <v>337.55</v>
+        <v>1042</v>
       </c>
       <c r="D278">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E278" t="s">
         <v>469</v>
       </c>
       <c r="F278">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="G278">
-        <v>2909.11</v>
+        <v>33892.4</v>
       </c>
       <c r="H278">
-        <v>-18.66</v>
+        <v>-20.7</v>
       </c>
       <c r="I278">
-        <v>83.58</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="J278">
-        <v>-9.42</v>
+        <v>-8.43</v>
       </c>
       <c r="K278">
-        <v>10.64</v>
+        <v>11.38</v>
       </c>
       <c r="L278">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M278">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="N278">
-        <v>1937393</v>
+        <v>499615</v>
       </c>
       <c r="O278" t="s">
-        <v>486</v>
+        <v>522</v>
       </c>
       <c r="P278" t="b">
         <v>1</v>
@@ -16025,43 +16028,43 @@
         <v>292</v>
       </c>
       <c r="C279">
-        <v>1025</v>
+        <v>750</v>
       </c>
       <c r="D279">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E279" t="s">
         <v>469</v>
       </c>
       <c r="F279">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="G279">
-        <v>33892.4</v>
+        <v>26016.12</v>
       </c>
       <c r="H279">
-        <v>-21.99</v>
+        <v>-22.68</v>
       </c>
       <c r="I279">
-        <v>67.06999999999999</v>
+        <v>164.71</v>
       </c>
       <c r="J279">
-        <v>-8.43</v>
+        <v>-3.05</v>
       </c>
       <c r="K279">
-        <v>11.38</v>
+        <v>17.28</v>
       </c>
       <c r="L279">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M279">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N279">
-        <v>499615</v>
+        <v>360065</v>
       </c>
       <c r="O279" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
       <c r="P279" t="b">
         <v>1</v>
@@ -16075,43 +16078,43 @@
         <v>293</v>
       </c>
       <c r="C280">
-        <v>748.45</v>
+        <v>543.25</v>
       </c>
       <c r="D280">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E280" t="s">
         <v>469</v>
       </c>
       <c r="F280">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="G280">
-        <v>26016.12</v>
+        <v>786.79</v>
       </c>
       <c r="H280">
-        <v>-22.84</v>
+        <v>-20.52</v>
       </c>
       <c r="I280">
-        <v>164.71</v>
+        <v>244.7</v>
       </c>
       <c r="J280">
-        <v>-3.05</v>
+        <v>-7.88</v>
       </c>
       <c r="K280">
-        <v>17.28</v>
+        <v>28.78</v>
       </c>
       <c r="L280">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M280">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="N280">
-        <v>360065</v>
+        <v>38220</v>
       </c>
       <c r="O280" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="P280" t="b">
         <v>1</v>
@@ -16125,43 +16128,43 @@
         <v>294</v>
       </c>
       <c r="C281">
-        <v>543.25</v>
+        <v>904.05</v>
       </c>
       <c r="D281">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E281" t="s">
         <v>469</v>
       </c>
       <c r="F281">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="G281">
-        <v>786.79</v>
+        <v>13590.89</v>
       </c>
       <c r="H281">
-        <v>-20.52</v>
+        <v>-32.92</v>
       </c>
       <c r="I281">
-        <v>244.7</v>
+        <v>150.37</v>
       </c>
       <c r="J281">
-        <v>-7.88</v>
+        <v>-9.31</v>
       </c>
       <c r="K281">
-        <v>28.78</v>
+        <v>34.95</v>
       </c>
       <c r="L281">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M281">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N281">
-        <v>38220</v>
+        <v>471775</v>
       </c>
       <c r="O281" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
       <c r="P281" t="b">
         <v>1</v>
@@ -16175,43 +16178,43 @@
         <v>295</v>
       </c>
       <c r="C282">
-        <v>912.25</v>
+        <v>303</v>
       </c>
       <c r="D282">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E282" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F282">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="G282">
-        <v>13590.89</v>
+        <v>757.2</v>
       </c>
       <c r="H282">
-        <v>-32.32</v>
+        <v>-6.97</v>
       </c>
       <c r="I282">
-        <v>150.37</v>
+        <v>126.12</v>
       </c>
       <c r="J282">
-        <v>-9.31</v>
+        <v>27.01</v>
       </c>
       <c r="K282">
-        <v>34.95</v>
+        <v>52.38</v>
       </c>
       <c r="L282">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="M282">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="N282">
-        <v>471775</v>
+        <v>96463</v>
       </c>
       <c r="O282" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="P282" t="b">
         <v>1</v>
@@ -16225,43 +16228,43 @@
         <v>296</v>
       </c>
       <c r="C283">
-        <v>303</v>
+        <v>20.1</v>
       </c>
       <c r="D283">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E283" t="s">
         <v>470</v>
       </c>
       <c r="F283">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="G283">
-        <v>757.2</v>
+        <v>1249.61</v>
       </c>
       <c r="H283">
-        <v>-6.97</v>
+        <v>-23.72</v>
       </c>
       <c r="I283">
-        <v>126.12</v>
+        <v>99.8</v>
       </c>
       <c r="J283">
-        <v>27.01</v>
+        <v>20.54</v>
       </c>
       <c r="K283">
-        <v>52.38</v>
+        <v>39.13</v>
       </c>
       <c r="L283">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M283">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N283">
-        <v>96463</v>
+        <v>15734118</v>
       </c>
       <c r="O283" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="P283" t="b">
         <v>1</v>
@@ -16275,7 +16278,7 @@
         <v>297</v>
       </c>
       <c r="C284">
-        <v>902.55</v>
+        <v>880.05</v>
       </c>
       <c r="D284">
         <v>78</v>
@@ -16290,7 +16293,7 @@
         <v>12698</v>
       </c>
       <c r="H284">
-        <v>-7.43</v>
+        <v>-9.74</v>
       </c>
       <c r="I284">
         <v>110.23</v>
@@ -16311,7 +16314,7 @@
         <v>158540</v>
       </c>
       <c r="O284" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P284" t="b">
         <v>1</v>
@@ -16325,7 +16328,7 @@
         <v>298</v>
       </c>
       <c r="C285">
-        <v>1051</v>
+        <v>1077</v>
       </c>
       <c r="D285">
         <v>39</v>
@@ -16340,7 +16343,7 @@
         <v>1084.74</v>
       </c>
       <c r="H285">
-        <v>-33.57</v>
+        <v>-31.92</v>
       </c>
       <c r="I285">
         <v>46.57</v>
@@ -16375,7 +16378,7 @@
         <v>299</v>
       </c>
       <c r="C286">
-        <v>643</v>
+        <v>649.55</v>
       </c>
       <c r="D286">
         <v>72</v>
@@ -16390,7 +16393,7 @@
         <v>1551.99</v>
       </c>
       <c r="H286">
-        <v>-5.44</v>
+        <v>-4.48</v>
       </c>
       <c r="I286">
         <v>89.76000000000001</v>
@@ -16411,7 +16414,7 @@
         <v>69813</v>
       </c>
       <c r="O286" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P286" t="b">
         <v>1</v>
@@ -16425,7 +16428,7 @@
         <v>300</v>
       </c>
       <c r="C287">
-        <v>2085.05</v>
+        <v>2089.1</v>
       </c>
       <c r="D287">
         <v>90</v>
@@ -16440,7 +16443,7 @@
         <v>5399.55</v>
       </c>
       <c r="H287">
-        <v>-14.46</v>
+        <v>-14.29</v>
       </c>
       <c r="I287">
         <v>162.62</v>
@@ -16475,7 +16478,7 @@
         <v>301</v>
       </c>
       <c r="C288">
-        <v>440.3</v>
+        <v>440</v>
       </c>
       <c r="D288">
         <v>77</v>
@@ -16490,7 +16493,7 @@
         <v>4429.28</v>
       </c>
       <c r="H288">
-        <v>-4.39</v>
+        <v>-4.45</v>
       </c>
       <c r="I288">
         <v>86.09999999999999</v>
@@ -16525,7 +16528,7 @@
         <v>302</v>
       </c>
       <c r="C289">
-        <v>979.9</v>
+        <v>1046.2</v>
       </c>
       <c r="D289">
         <v>85</v>
@@ -16540,7 +16543,7 @@
         <v>1707.63</v>
       </c>
       <c r="H289">
-        <v>-18.85</v>
+        <v>-13.36</v>
       </c>
       <c r="I289">
         <v>145.9</v>
@@ -16575,7 +16578,7 @@
         <v>303</v>
       </c>
       <c r="C290">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="D290">
         <v>80</v>
@@ -16590,7 +16593,7 @@
         <v>8241.139999999999</v>
       </c>
       <c r="H290">
-        <v>-10.9</v>
+        <v>-11.71</v>
       </c>
       <c r="I290">
         <v>173.16</v>
@@ -16625,7 +16628,7 @@
         <v>304</v>
       </c>
       <c r="C291">
-        <v>1287.1</v>
+        <v>1290.1</v>
       </c>
       <c r="D291">
         <v>70</v>
@@ -16640,7 +16643,7 @@
         <v>43895.18</v>
       </c>
       <c r="H291">
-        <v>-0.89</v>
+        <v>-0.65</v>
       </c>
       <c r="I291">
         <v>48.89</v>
@@ -16661,7 +16664,7 @@
         <v>1532243</v>
       </c>
       <c r="O291" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="P291" t="b">
         <v>1</v>
@@ -16675,7 +16678,7 @@
         <v>305</v>
       </c>
       <c r="C292">
-        <v>4319.45</v>
+        <v>4292</v>
       </c>
       <c r="D292">
         <v>90</v>
@@ -16690,7 +16693,7 @@
         <v>8583.700000000001</v>
       </c>
       <c r="H292">
-        <v>-4.01</v>
+        <v>-4.62</v>
       </c>
       <c r="I292">
         <v>171.98</v>
@@ -16725,7 +16728,7 @@
         <v>306</v>
       </c>
       <c r="C293">
-        <v>808.8</v>
+        <v>807</v>
       </c>
       <c r="D293">
         <v>79</v>
@@ -16740,7 +16743,7 @@
         <v>1808.76</v>
       </c>
       <c r="H293">
-        <v>-4.84</v>
+        <v>-5.05</v>
       </c>
       <c r="I293">
         <v>62.73</v>
@@ -16761,7 +16764,7 @@
         <v>171797</v>
       </c>
       <c r="O293" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="P293" t="b">
         <v>1</v>
@@ -16775,7 +16778,7 @@
         <v>307</v>
       </c>
       <c r="C294">
-        <v>926.85</v>
+        <v>916.5</v>
       </c>
       <c r="D294">
         <v>77</v>
@@ -16790,7 +16793,7 @@
         <v>4810.78</v>
       </c>
       <c r="H294">
-        <v>-0.48</v>
+        <v>-1.59</v>
       </c>
       <c r="I294">
         <v>79.26000000000001</v>
@@ -16925,7 +16928,7 @@
         <v>310</v>
       </c>
       <c r="C297">
-        <v>649.95</v>
+        <v>636</v>
       </c>
       <c r="D297">
         <v>60</v>
@@ -16940,7 +16943,7 @@
         <v>1032.95</v>
       </c>
       <c r="H297">
-        <v>-10.97</v>
+        <v>-12.88</v>
       </c>
       <c r="I297">
         <v>60.84</v>
@@ -16975,7 +16978,7 @@
         <v>311</v>
       </c>
       <c r="C298">
-        <v>127</v>
+        <v>125.63</v>
       </c>
       <c r="D298">
         <v>88</v>
@@ -16990,7 +16993,7 @@
         <v>3660.23</v>
       </c>
       <c r="H298">
-        <v>-20.31</v>
+        <v>-21.17</v>
       </c>
       <c r="I298">
         <v>184.7</v>
@@ -17025,7 +17028,7 @@
         <v>312</v>
       </c>
       <c r="C299">
-        <v>1381.3</v>
+        <v>1380</v>
       </c>
       <c r="D299">
         <v>62</v>
@@ -17040,7 +17043,7 @@
         <v>6089.16</v>
       </c>
       <c r="H299">
-        <v>-8.58</v>
+        <v>-8.66</v>
       </c>
       <c r="I299">
         <v>44.33</v>
@@ -17075,7 +17078,7 @@
         <v>313</v>
       </c>
       <c r="C300">
-        <v>799.95</v>
+        <v>798</v>
       </c>
       <c r="D300">
         <v>64</v>
@@ -17090,7 +17093,7 @@
         <v>2599.67</v>
       </c>
       <c r="H300">
-        <v>-11.35</v>
+        <v>-11.57</v>
       </c>
       <c r="I300">
         <v>52.47</v>
@@ -17125,7 +17128,7 @@
         <v>314</v>
       </c>
       <c r="C301">
-        <v>491.45</v>
+        <v>479.5</v>
       </c>
       <c r="D301">
         <v>37</v>
@@ -17140,7 +17143,7 @@
         <v>633.72</v>
       </c>
       <c r="H301">
-        <v>-32.64</v>
+        <v>-34.28</v>
       </c>
       <c r="I301">
         <v>40.22</v>
@@ -17175,7 +17178,7 @@
         <v>315</v>
       </c>
       <c r="C302">
-        <v>336.9</v>
+        <v>334.1</v>
       </c>
       <c r="D302">
         <v>70</v>
@@ -17190,7 +17193,7 @@
         <v>6907.16</v>
       </c>
       <c r="H302">
-        <v>-11.11</v>
+        <v>-11.85</v>
       </c>
       <c r="I302">
         <v>85.25</v>
@@ -17225,7 +17228,7 @@
         <v>316</v>
       </c>
       <c r="C303">
-        <v>1229.15</v>
+        <v>1220</v>
       </c>
       <c r="D303">
         <v>74</v>
@@ -17240,7 +17243,7 @@
         <v>15634.96</v>
       </c>
       <c r="H303">
-        <v>-8.42</v>
+        <v>-9.1</v>
       </c>
       <c r="I303">
         <v>65.45999999999999</v>
@@ -17275,7 +17278,7 @@
         <v>317</v>
       </c>
       <c r="C304">
-        <v>935.85</v>
+        <v>930</v>
       </c>
       <c r="D304">
         <v>77</v>
@@ -17290,7 +17293,7 @@
         <v>9654.16</v>
       </c>
       <c r="H304">
-        <v>-15.51</v>
+        <v>-16.04</v>
       </c>
       <c r="I304">
         <v>75.28</v>
@@ -17325,7 +17328,7 @@
         <v>318</v>
       </c>
       <c r="C305">
-        <v>1876.95</v>
+        <v>1888</v>
       </c>
       <c r="D305">
         <v>81</v>
@@ -17340,7 +17343,7 @@
         <v>36602.21</v>
       </c>
       <c r="H305">
-        <v>-14.67</v>
+        <v>-14.16</v>
       </c>
       <c r="I305">
         <v>133.43</v>
@@ -17375,7 +17378,7 @@
         <v>319</v>
       </c>
       <c r="C306">
-        <v>1024.15</v>
+        <v>1031</v>
       </c>
       <c r="D306">
         <v>81</v>
@@ -17390,7 +17393,7 @@
         <v>3180.15</v>
       </c>
       <c r="H306">
-        <v>-9.98</v>
+        <v>-9.380000000000001</v>
       </c>
       <c r="I306">
         <v>85.59999999999999</v>
@@ -17411,7 +17414,7 @@
         <v>144312</v>
       </c>
       <c r="O306" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P306" t="b">
         <v>1</v>
@@ -17425,7 +17428,7 @@
         <v>320</v>
       </c>
       <c r="C307">
-        <v>893.45</v>
+        <v>885</v>
       </c>
       <c r="D307">
         <v>49</v>
@@ -17440,7 +17443,7 @@
         <v>5904.89</v>
       </c>
       <c r="H307">
-        <v>-16.23</v>
+        <v>-17.02</v>
       </c>
       <c r="I307">
         <v>49.52</v>
@@ -17475,7 +17478,7 @@
         <v>321</v>
       </c>
       <c r="C308">
-        <v>1929.2</v>
+        <v>1883.2</v>
       </c>
       <c r="D308">
         <v>46</v>
@@ -17490,7 +17493,7 @@
         <v>29797.77</v>
       </c>
       <c r="H308">
-        <v>-4.97</v>
+        <v>-7.23</v>
       </c>
       <c r="I308">
         <v>54.17</v>
@@ -17525,7 +17528,7 @@
         <v>322</v>
       </c>
       <c r="C309">
-        <v>1841.4</v>
+        <v>1855.55</v>
       </c>
       <c r="D309">
         <v>75</v>
@@ -17540,7 +17543,7 @@
         <v>13904.11</v>
       </c>
       <c r="H309">
-        <v>-14.7</v>
+        <v>-14.05</v>
       </c>
       <c r="I309">
         <v>91.73999999999999</v>
@@ -17575,7 +17578,7 @@
         <v>323</v>
       </c>
       <c r="C310">
-        <v>215.48</v>
+        <v>219.2</v>
       </c>
       <c r="D310">
         <v>59</v>
@@ -17590,7 +17593,7 @@
         <v>17298.08</v>
       </c>
       <c r="H310">
-        <v>-7.42</v>
+        <v>-5.82</v>
       </c>
       <c r="I310">
         <v>55.31</v>
@@ -17625,7 +17628,7 @@
         <v>324</v>
       </c>
       <c r="C311">
-        <v>1258</v>
+        <v>1270</v>
       </c>
       <c r="D311">
         <v>81</v>
@@ -17640,7 +17643,7 @@
         <v>4535.62</v>
       </c>
       <c r="H311">
-        <v>-13.69</v>
+        <v>-12.87</v>
       </c>
       <c r="I311">
         <v>105.28</v>
@@ -17675,7 +17678,7 @@
         <v>325</v>
       </c>
       <c r="C312">
-        <v>8607.35</v>
+        <v>8284</v>
       </c>
       <c r="D312">
         <v>66</v>
@@ -17690,7 +17693,7 @@
         <v>27681.61</v>
       </c>
       <c r="H312">
-        <v>-9.960000000000001</v>
+        <v>-13.35</v>
       </c>
       <c r="I312">
         <v>42.63</v>
@@ -17725,7 +17728,7 @@
         <v>326</v>
       </c>
       <c r="C313">
-        <v>1014</v>
+        <v>1051.75</v>
       </c>
       <c r="D313">
         <v>54</v>
@@ -17740,7 +17743,7 @@
         <v>23545.54</v>
       </c>
       <c r="H313">
-        <v>-11.35</v>
+        <v>-8.050000000000001</v>
       </c>
       <c r="I313">
         <v>41.77</v>
@@ -17761,7 +17764,7 @@
         <v>1439022</v>
       </c>
       <c r="O313" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P313" t="b">
         <v>1</v>
@@ -17825,7 +17828,7 @@
         <v>328</v>
       </c>
       <c r="C315">
-        <v>296.8</v>
+        <v>310</v>
       </c>
       <c r="D315">
         <v>84</v>
@@ -17840,7 +17843,7 @@
         <v>1105.38</v>
       </c>
       <c r="H315">
-        <v>-28.26</v>
+        <v>-25.07</v>
       </c>
       <c r="I315">
         <v>278.81</v>
@@ -17861,7 +17864,7 @@
         <v>329640</v>
       </c>
       <c r="O315" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P315" t="b">
         <v>1</v>
@@ -17875,7 +17878,7 @@
         <v>329</v>
       </c>
       <c r="C316">
-        <v>733</v>
+        <v>720.5</v>
       </c>
       <c r="D316">
         <v>75</v>
@@ -17890,7 +17893,7 @@
         <v>2117.01</v>
       </c>
       <c r="H316">
-        <v>-18.74</v>
+        <v>-20.12</v>
       </c>
       <c r="I316">
         <v>110.14</v>
@@ -17925,7 +17928,7 @@
         <v>330</v>
       </c>
       <c r="C317">
-        <v>384.45</v>
+        <v>403.9</v>
       </c>
       <c r="D317">
         <v>59</v>
@@ -17940,7 +17943,7 @@
         <v>1451</v>
       </c>
       <c r="H317">
-        <v>-15.51</v>
+        <v>-11.23</v>
       </c>
       <c r="I317">
         <v>57.33</v>
@@ -17975,7 +17978,7 @@
         <v>331</v>
       </c>
       <c r="C318">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D318">
         <v>84</v>
@@ -17990,7 +17993,7 @@
         <v>743.98</v>
       </c>
       <c r="H318">
-        <v>-22.47</v>
+        <v>-23.16</v>
       </c>
       <c r="I318">
         <v>160.88</v>
@@ -18025,7 +18028,7 @@
         <v>332</v>
       </c>
       <c r="C319">
-        <v>199.5</v>
+        <v>193.2</v>
       </c>
       <c r="D319">
         <v>68</v>
@@ -18040,7 +18043,7 @@
         <v>882.96</v>
       </c>
       <c r="H319">
-        <v>-30.58</v>
+        <v>-32.78</v>
       </c>
       <c r="I319">
         <v>44.51</v>
@@ -18075,7 +18078,7 @@
         <v>333</v>
       </c>
       <c r="C320">
-        <v>631</v>
+        <v>620.15</v>
       </c>
       <c r="D320">
         <v>75</v>
@@ -18090,7 +18093,7 @@
         <v>3476.42</v>
       </c>
       <c r="H320">
-        <v>-23.52</v>
+        <v>-24.83</v>
       </c>
       <c r="I320">
         <v>121.8</v>
@@ -18125,7 +18128,7 @@
         <v>334</v>
       </c>
       <c r="C321">
-        <v>137.91</v>
+        <v>137.71</v>
       </c>
       <c r="D321">
         <v>66</v>
@@ -18140,7 +18143,7 @@
         <v>4203.2</v>
       </c>
       <c r="H321">
-        <v>-16.36</v>
+        <v>-16.48</v>
       </c>
       <c r="I321">
         <v>69.06</v>
@@ -18175,7 +18178,7 @@
         <v>335</v>
       </c>
       <c r="C322">
-        <v>378.5</v>
+        <v>378.95</v>
       </c>
       <c r="D322">
         <v>61</v>
@@ -18190,7 +18193,7 @@
         <v>824.9</v>
       </c>
       <c r="H322">
-        <v>-23.52</v>
+        <v>-23.43</v>
       </c>
       <c r="I322">
         <v>41.8</v>
@@ -18211,7 +18214,7 @@
         <v>255190</v>
       </c>
       <c r="O322" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P322" t="b">
         <v>1</v>
@@ -18275,7 +18278,7 @@
         <v>337</v>
       </c>
       <c r="C324">
-        <v>593.05</v>
+        <v>587</v>
       </c>
       <c r="D324">
         <v>45</v>
@@ -18290,7 +18293,7 @@
         <v>4602.96</v>
       </c>
       <c r="H324">
-        <v>-15.64</v>
+        <v>-16.5</v>
       </c>
       <c r="I324">
         <v>49.53</v>
@@ -18325,7 +18328,7 @@
         <v>338</v>
       </c>
       <c r="C325">
-        <v>428.55</v>
+        <v>422</v>
       </c>
       <c r="D325">
         <v>68</v>
@@ -18340,7 +18343,7 @@
         <v>1534.27</v>
       </c>
       <c r="H325">
-        <v>-23.3</v>
+        <v>-24.47</v>
       </c>
       <c r="I325">
         <v>62.03</v>
@@ -18375,7 +18378,7 @@
         <v>339</v>
       </c>
       <c r="C326">
-        <v>395.5</v>
+        <v>393</v>
       </c>
       <c r="D326">
         <v>54</v>
@@ -18390,7 +18393,7 @@
         <v>2246.55</v>
       </c>
       <c r="H326">
-        <v>-16.56</v>
+        <v>-17.09</v>
       </c>
       <c r="I326">
         <v>53.4</v>
@@ -18425,7 +18428,7 @@
         <v>340</v>
       </c>
       <c r="C327">
-        <v>345.35</v>
+        <v>337</v>
       </c>
       <c r="D327">
         <v>73</v>
@@ -18440,7 +18443,7 @@
         <v>1053.65</v>
       </c>
       <c r="H327">
-        <v>-18.43</v>
+        <v>-20.41</v>
       </c>
       <c r="I327">
         <v>159.96</v>
@@ -18475,7 +18478,7 @@
         <v>341</v>
       </c>
       <c r="C328">
-        <v>283.8</v>
+        <v>277.85</v>
       </c>
       <c r="D328">
         <v>60</v>
@@ -18490,7 +18493,7 @@
         <v>1379.32</v>
       </c>
       <c r="H328">
-        <v>-23.24</v>
+        <v>-24.84</v>
       </c>
       <c r="I328">
         <v>54.27</v>
@@ -18525,7 +18528,7 @@
         <v>342</v>
       </c>
       <c r="C329">
-        <v>430.6</v>
+        <v>420.55</v>
       </c>
       <c r="D329">
         <v>80</v>
@@ -18540,7 +18543,7 @@
         <v>1054.11</v>
       </c>
       <c r="H329">
-        <v>-22.41</v>
+        <v>-24.23</v>
       </c>
       <c r="I329">
         <v>111.29</v>
@@ -18575,7 +18578,7 @@
         <v>343</v>
       </c>
       <c r="C330">
-        <v>396.5</v>
+        <v>392.5</v>
       </c>
       <c r="D330">
         <v>68</v>
@@ -18590,7 +18593,7 @@
         <v>6202.85</v>
       </c>
       <c r="H330">
-        <v>-12.08</v>
+        <v>-12.97</v>
       </c>
       <c r="I330">
         <v>75.69</v>
@@ -18625,7 +18628,7 @@
         <v>344</v>
       </c>
       <c r="C331">
-        <v>5398.4</v>
+        <v>5335</v>
       </c>
       <c r="D331">
         <v>64</v>
@@ -18640,7 +18643,7 @@
         <v>25168.26</v>
       </c>
       <c r="H331">
-        <v>-16.32</v>
+        <v>-17.3</v>
       </c>
       <c r="I331">
         <v>43.34</v>
@@ -18675,7 +18678,7 @@
         <v>345</v>
       </c>
       <c r="C332">
-        <v>899.3</v>
+        <v>920.7</v>
       </c>
       <c r="D332">
         <v>70</v>
@@ -18690,7 +18693,7 @@
         <v>4172.94</v>
       </c>
       <c r="H332">
-        <v>-17.87</v>
+        <v>-15.92</v>
       </c>
       <c r="I332">
         <v>43.02</v>
@@ -18725,7 +18728,7 @@
         <v>346</v>
       </c>
       <c r="C333">
-        <v>1017.35</v>
+        <v>941.05</v>
       </c>
       <c r="D333">
         <v>62</v>
@@ -18740,7 +18743,7 @@
         <v>1647.56</v>
       </c>
       <c r="H333">
-        <v>-33.46</v>
+        <v>-38.45</v>
       </c>
       <c r="I333">
         <v>60.53</v>
@@ -18775,7 +18778,7 @@
         <v>347</v>
       </c>
       <c r="C334">
-        <v>469.3</v>
+        <v>472</v>
       </c>
       <c r="D334">
         <v>86</v>
@@ -18790,7 +18793,7 @@
         <v>7977.68</v>
       </c>
       <c r="H334">
-        <v>-19.64</v>
+        <v>-19.18</v>
       </c>
       <c r="I334">
         <v>139.06</v>
@@ -18825,7 +18828,7 @@
         <v>348</v>
       </c>
       <c r="C335">
-        <v>1606</v>
+        <v>1660</v>
       </c>
       <c r="D335">
         <v>67</v>
@@ -18840,7 +18843,7 @@
         <v>47203.17</v>
       </c>
       <c r="H335">
-        <v>-10.23</v>
+        <v>-7.21</v>
       </c>
       <c r="I335">
         <v>57.27</v>
@@ -18875,7 +18878,7 @@
         <v>349</v>
       </c>
       <c r="C336">
-        <v>5359</v>
+        <v>5312</v>
       </c>
       <c r="D336">
         <v>56</v>
@@ -18890,7 +18893,7 @@
         <v>13349.34</v>
       </c>
       <c r="H336">
-        <v>-24.75</v>
+        <v>-25.41</v>
       </c>
       <c r="I336">
         <v>47.96</v>
@@ -18911,7 +18914,7 @@
         <v>82616</v>
       </c>
       <c r="O336" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P336" t="b">
         <v>1</v>
@@ -18925,7 +18928,7 @@
         <v>350</v>
       </c>
       <c r="C337">
-        <v>1319.9</v>
+        <v>1318.95</v>
       </c>
       <c r="D337">
         <v>70</v>
@@ -18940,7 +18943,7 @@
         <v>9817.360000000001</v>
       </c>
       <c r="H337">
-        <v>-17.05</v>
+        <v>-17.11</v>
       </c>
       <c r="I337">
         <v>103.53</v>
@@ -18975,7 +18978,7 @@
         <v>351</v>
       </c>
       <c r="C338">
-        <v>415.5</v>
+        <v>397</v>
       </c>
       <c r="D338">
         <v>84</v>
@@ -18990,7 +18993,7 @@
         <v>9850.02</v>
       </c>
       <c r="H338">
-        <v>-27.05</v>
+        <v>-30.3</v>
       </c>
       <c r="I338">
         <v>227.56</v>
@@ -19025,7 +19028,7 @@
         <v>352</v>
       </c>
       <c r="C339">
-        <v>747.15</v>
+        <v>753.8</v>
       </c>
       <c r="D339">
         <v>53</v>
@@ -19040,7 +19043,7 @@
         <v>3314.6</v>
       </c>
       <c r="H339">
-        <v>-23.99</v>
+        <v>-23.32</v>
       </c>
       <c r="I339">
         <v>68.52</v>
@@ -19075,7 +19078,7 @@
         <v>353</v>
       </c>
       <c r="C340">
-        <v>699</v>
+        <v>702.55</v>
       </c>
       <c r="D340">
         <v>75</v>
@@ -19090,7 +19093,7 @@
         <v>2809.94</v>
       </c>
       <c r="H340">
-        <v>-18.33</v>
+        <v>-17.91</v>
       </c>
       <c r="I340">
         <v>137.11</v>
@@ -19125,7 +19128,7 @@
         <v>354</v>
       </c>
       <c r="C341">
-        <v>311.85</v>
+        <v>307.55</v>
       </c>
       <c r="D341">
         <v>61</v>
@@ -19140,7 +19143,7 @@
         <v>33485.37</v>
       </c>
       <c r="H341">
-        <v>-14.42</v>
+        <v>-15.6</v>
       </c>
       <c r="I341">
         <v>57.28</v>
@@ -19175,7 +19178,7 @@
         <v>355</v>
       </c>
       <c r="C342">
-        <v>1141.95</v>
+        <v>1130.3</v>
       </c>
       <c r="D342">
         <v>59</v>
@@ -19190,7 +19193,7 @@
         <v>9835.73</v>
       </c>
       <c r="H342">
-        <v>-18.14</v>
+        <v>-18.97</v>
       </c>
       <c r="I342">
         <v>66.18000000000001</v>
@@ -19211,7 +19214,7 @@
         <v>476563</v>
       </c>
       <c r="O342" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="P342" t="b">
         <v>1</v>
@@ -19225,7 +19228,7 @@
         <v>356</v>
       </c>
       <c r="C343">
-        <v>716</v>
+        <v>743</v>
       </c>
       <c r="D343">
         <v>75</v>
@@ -19240,7 +19243,7 @@
         <v>820.96</v>
       </c>
       <c r="H343">
-        <v>-15.35</v>
+        <v>-12.15</v>
       </c>
       <c r="I343">
         <v>78.27</v>
@@ -19261,7 +19264,7 @@
         <v>36980</v>
       </c>
       <c r="O343" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="P343" t="b">
         <v>1</v>
@@ -19275,7 +19278,7 @@
         <v>357</v>
       </c>
       <c r="C344">
-        <v>691.9</v>
+        <v>685</v>
       </c>
       <c r="D344">
         <v>83</v>
@@ -19290,7 +19293,7 @@
         <v>756.24</v>
       </c>
       <c r="H344">
-        <v>-23.97</v>
+        <v>-24.73</v>
       </c>
       <c r="I344">
         <v>130.23</v>
@@ -19325,7 +19328,7 @@
         <v>358</v>
       </c>
       <c r="C345">
-        <v>2925</v>
+        <v>2875.5</v>
       </c>
       <c r="D345">
         <v>63</v>
@@ -19340,7 +19343,7 @@
         <v>26709.94</v>
       </c>
       <c r="H345">
-        <v>-24.92</v>
+        <v>-26.19</v>
       </c>
       <c r="I345">
         <v>46.31</v>
@@ -19375,7 +19378,7 @@
         <v>359</v>
       </c>
       <c r="C346">
-        <v>1646.45</v>
+        <v>1661</v>
       </c>
       <c r="D346">
         <v>89</v>
@@ -19390,7 +19393,7 @@
         <v>27902.99</v>
       </c>
       <c r="H346">
-        <v>-13.34</v>
+        <v>-12.58</v>
       </c>
       <c r="I346">
         <v>185.14</v>
@@ -19425,7 +19428,7 @@
         <v>360</v>
       </c>
       <c r="C347">
-        <v>197.18</v>
+        <v>192.8</v>
       </c>
       <c r="D347">
         <v>50</v>
@@ -19440,7 +19443,7 @@
         <v>740.41</v>
       </c>
       <c r="H347">
-        <v>-16.31</v>
+        <v>-18.17</v>
       </c>
       <c r="I347">
         <v>49.76</v>
@@ -19475,7 +19478,7 @@
         <v>361</v>
       </c>
       <c r="C348">
-        <v>196.75</v>
+        <v>194.32</v>
       </c>
       <c r="D348">
         <v>76</v>
@@ -19490,7 +19493,7 @@
         <v>2678.95</v>
       </c>
       <c r="H348">
-        <v>-8.49</v>
+        <v>-9.619999999999999</v>
       </c>
       <c r="I348">
         <v>110.97</v>
@@ -19561,7 +19564,7 @@
         <v>58608</v>
       </c>
       <c r="O349" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P349" t="b">
         <v>1</v>
@@ -19625,7 +19628,7 @@
         <v>364</v>
       </c>
       <c r="C351">
-        <v>384.05</v>
+        <v>388</v>
       </c>
       <c r="D351">
         <v>85</v>
@@ -19640,7 +19643,7 @@
         <v>1349.18</v>
       </c>
       <c r="H351">
-        <v>-15.57</v>
+        <v>-14.7</v>
       </c>
       <c r="I351">
         <v>124.12</v>
@@ -19675,7 +19678,7 @@
         <v>365</v>
       </c>
       <c r="C352">
-        <v>810.1</v>
+        <v>820</v>
       </c>
       <c r="D352">
         <v>83</v>
@@ -19690,7 +19693,7 @@
         <v>3714.47</v>
       </c>
       <c r="H352">
-        <v>-10.19</v>
+        <v>-9.09</v>
       </c>
       <c r="I352">
         <v>163.88</v>
@@ -19725,7 +19728,7 @@
         <v>366</v>
       </c>
       <c r="C353">
-        <v>1266.55</v>
+        <v>1257</v>
       </c>
       <c r="D353">
         <v>82</v>
@@ -19740,7 +19743,7 @@
         <v>9847.379999999999</v>
       </c>
       <c r="H353">
-        <v>-17.97</v>
+        <v>-18.59</v>
       </c>
       <c r="I353">
         <v>117.7</v>
@@ -19775,7 +19778,7 @@
         <v>367</v>
       </c>
       <c r="C354">
-        <v>595.15</v>
+        <v>585</v>
       </c>
       <c r="D354">
         <v>77</v>
@@ -19790,7 +19793,7 @@
         <v>44810.53</v>
       </c>
       <c r="H354">
-        <v>-5.31</v>
+        <v>-6.92</v>
       </c>
       <c r="I354">
         <v>89.15000000000001</v>
@@ -19825,7 +19828,7 @@
         <v>368</v>
       </c>
       <c r="C355">
-        <v>100.69</v>
+        <v>101.6</v>
       </c>
       <c r="D355">
         <v>67</v>
@@ -19840,7 +19843,7 @@
         <v>2608.75</v>
       </c>
       <c r="H355">
-        <v>-13.16</v>
+        <v>-12.38</v>
       </c>
       <c r="I355">
         <v>43.67</v>
@@ -19875,7 +19878,7 @@
         <v>369</v>
       </c>
       <c r="C356">
-        <v>582.05</v>
+        <v>591</v>
       </c>
       <c r="D356">
         <v>72</v>
@@ -19890,7 +19893,7 @@
         <v>5283.28</v>
       </c>
       <c r="H356">
-        <v>-8.6</v>
+        <v>-7.2</v>
       </c>
       <c r="I356">
         <v>84.12</v>
@@ -19925,7 +19928,7 @@
         <v>370</v>
       </c>
       <c r="C357">
-        <v>1243.05</v>
+        <v>1254</v>
       </c>
       <c r="D357">
         <v>73</v>
@@ -19940,7 +19943,7 @@
         <v>7661.66</v>
       </c>
       <c r="H357">
-        <v>-7.66</v>
+        <v>-6.84</v>
       </c>
       <c r="I357">
         <v>91.25</v>
@@ -19961,7 +19964,7 @@
         <v>72161</v>
       </c>
       <c r="O357" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P357" t="b">
         <v>1</v>
@@ -19975,7 +19978,7 @@
         <v>371</v>
       </c>
       <c r="C358">
-        <v>124.91</v>
+        <v>123.76</v>
       </c>
       <c r="D358">
         <v>59</v>
@@ -19990,7 +19993,7 @@
         <v>1335.44</v>
       </c>
       <c r="H358">
-        <v>-16.5</v>
+        <v>-17.27</v>
       </c>
       <c r="I358">
         <v>63.96</v>
@@ -20025,7 +20028,7 @@
         <v>372</v>
       </c>
       <c r="C359">
-        <v>223.95</v>
+        <v>227.39</v>
       </c>
       <c r="D359">
         <v>64</v>
@@ -20040,7 +20043,7 @@
         <v>4651.99</v>
       </c>
       <c r="H359">
-        <v>-12.66</v>
+        <v>-11.31</v>
       </c>
       <c r="I359">
         <v>67.95999999999999</v>
@@ -20075,7 +20078,7 @@
         <v>373</v>
       </c>
       <c r="C360">
-        <v>884.7</v>
+        <v>882</v>
       </c>
       <c r="D360">
         <v>79</v>
@@ -20090,7 +20093,7 @@
         <v>7421.61</v>
       </c>
       <c r="H360">
-        <v>-10.9</v>
+        <v>-11.17</v>
       </c>
       <c r="I360">
         <v>115.95</v>
@@ -20111,7 +20114,7 @@
         <v>209732</v>
       </c>
       <c r="O360" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P360" t="b">
         <v>1</v>
@@ -20125,7 +20128,7 @@
         <v>374</v>
       </c>
       <c r="C361">
-        <v>971.4</v>
+        <v>979</v>
       </c>
       <c r="D361">
         <v>86</v>
@@ -20140,7 +20143,7 @@
         <v>17075.44</v>
       </c>
       <c r="H361">
-        <v>-18.3</v>
+        <v>-17.66</v>
       </c>
       <c r="I361">
         <v>134.01</v>
@@ -20175,7 +20178,7 @@
         <v>375</v>
       </c>
       <c r="C362">
-        <v>1560.15</v>
+        <v>1533</v>
       </c>
       <c r="D362">
         <v>77</v>
@@ -20190,7 +20193,7 @@
         <v>9571.23</v>
       </c>
       <c r="H362">
-        <v>-11.27</v>
+        <v>-12.81</v>
       </c>
       <c r="I362">
         <v>89</v>
@@ -20225,7 +20228,7 @@
         <v>376</v>
       </c>
       <c r="C363">
-        <v>1755</v>
+        <v>1685.85</v>
       </c>
       <c r="D363">
         <v>95</v>
@@ -20240,7 +20243,7 @@
         <v>44795.42</v>
       </c>
       <c r="H363">
-        <v>-10.87</v>
+        <v>-14.38</v>
       </c>
       <c r="I363">
         <v>401.29</v>
@@ -20275,7 +20278,7 @@
         <v>377</v>
       </c>
       <c r="C364">
-        <v>6761.8</v>
+        <v>6700</v>
       </c>
       <c r="D364">
         <v>75</v>
@@ -20290,7 +20293,7 @@
         <v>34218.92</v>
       </c>
       <c r="H364">
-        <v>-30.7</v>
+        <v>-31.33</v>
       </c>
       <c r="I364">
         <v>134.43</v>
@@ -20325,7 +20328,7 @@
         <v>378</v>
       </c>
       <c r="C365">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="D365">
         <v>76</v>
@@ -20340,7 +20343,7 @@
         <v>1342.84</v>
       </c>
       <c r="H365">
-        <v>-25.68</v>
+        <v>-23.59</v>
       </c>
       <c r="I365">
         <v>112.52</v>
@@ -20375,7 +20378,7 @@
         <v>379</v>
       </c>
       <c r="C366">
-        <v>2123.35</v>
+        <v>2056</v>
       </c>
       <c r="D366">
         <v>91</v>
@@ -20390,7 +20393,7 @@
         <v>14768.95</v>
       </c>
       <c r="H366">
-        <v>-21.36</v>
+        <v>-23.85</v>
       </c>
       <c r="I366">
         <v>193.05</v>
@@ -20461,7 +20464,7 @@
         <v>531643</v>
       </c>
       <c r="O367" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P367" t="b">
         <v>1</v>
@@ -20475,7 +20478,7 @@
         <v>381</v>
       </c>
       <c r="C368">
-        <v>1523.5</v>
+        <v>1520</v>
       </c>
       <c r="D368">
         <v>74</v>
@@ -20490,7 +20493,7 @@
         <v>4071.05</v>
       </c>
       <c r="H368">
-        <v>-14.89</v>
+        <v>-15.08</v>
       </c>
       <c r="I368">
         <v>88.17</v>
@@ -20525,7 +20528,7 @@
         <v>382</v>
       </c>
       <c r="C369">
-        <v>299.25</v>
+        <v>300.35</v>
       </c>
       <c r="D369">
         <v>59</v>
@@ -20540,7 +20543,7 @@
         <v>18710.48</v>
       </c>
       <c r="H369">
-        <v>-15.92</v>
+        <v>-15.61</v>
       </c>
       <c r="I369">
         <v>62.3</v>
@@ -20575,7 +20578,7 @@
         <v>383</v>
       </c>
       <c r="C370">
-        <v>333.4</v>
+        <v>329.8</v>
       </c>
       <c r="D370">
         <v>66</v>
@@ -20590,7 +20593,7 @@
         <v>6566.25</v>
       </c>
       <c r="H370">
-        <v>-11.96</v>
+        <v>-12.91</v>
       </c>
       <c r="I370">
         <v>64.63</v>
@@ -20625,7 +20628,7 @@
         <v>384</v>
       </c>
       <c r="C371">
-        <v>329.05</v>
+        <v>326</v>
       </c>
       <c r="D371">
         <v>85</v>
@@ -20640,7 +20643,7 @@
         <v>7359.42</v>
       </c>
       <c r="H371">
-        <v>-24.01</v>
+        <v>-24.71</v>
       </c>
       <c r="I371">
         <v>183.57</v>
@@ -20675,7 +20678,7 @@
         <v>385</v>
       </c>
       <c r="C372">
-        <v>264.2</v>
+        <v>265</v>
       </c>
       <c r="D372">
         <v>62</v>
@@ -20690,7 +20693,7 @@
         <v>3636.03</v>
       </c>
       <c r="H372">
-        <v>-22.97</v>
+        <v>-22.74</v>
       </c>
       <c r="I372">
         <v>69.65000000000001</v>
@@ -20761,7 +20764,7 @@
         <v>37059</v>
       </c>
       <c r="O373" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P373" t="b">
         <v>1</v>
@@ -20775,7 +20778,7 @@
         <v>387</v>
       </c>
       <c r="C374">
-        <v>542.1</v>
+        <v>542</v>
       </c>
       <c r="D374">
         <v>54</v>
@@ -20790,7 +20793,7 @@
         <v>1252.66</v>
       </c>
       <c r="H374">
-        <v>-26.13</v>
+        <v>-26.15</v>
       </c>
       <c r="I374">
         <v>53.31</v>
@@ -20825,7 +20828,7 @@
         <v>388</v>
       </c>
       <c r="C375">
-        <v>845</v>
+        <v>831.85</v>
       </c>
       <c r="D375">
         <v>88</v>
@@ -20840,7 +20843,7 @@
         <v>2073.72</v>
       </c>
       <c r="H375">
-        <v>-25.33</v>
+        <v>-26.5</v>
       </c>
       <c r="I375">
         <v>260.57</v>
@@ -20875,7 +20878,7 @@
         <v>389</v>
       </c>
       <c r="C376">
-        <v>860</v>
+        <v>830</v>
       </c>
       <c r="D376">
         <v>49</v>
@@ -20890,7 +20893,7 @@
         <v>18253</v>
       </c>
       <c r="H376">
-        <v>-10.23</v>
+        <v>-13.36</v>
       </c>
       <c r="I376">
         <v>56.3</v>
@@ -20925,7 +20928,7 @@
         <v>390</v>
       </c>
       <c r="C377">
-        <v>643.65</v>
+        <v>638.4</v>
       </c>
       <c r="D377">
         <v>47</v>
@@ -20940,7 +20943,7 @@
         <v>9482.02</v>
       </c>
       <c r="H377">
-        <v>-16.24</v>
+        <v>-16.92</v>
       </c>
       <c r="I377">
         <v>58.86</v>
@@ -20975,7 +20978,7 @@
         <v>391</v>
       </c>
       <c r="C378">
-        <v>2138.95</v>
+        <v>2142.95</v>
       </c>
       <c r="D378">
         <v>62</v>
@@ -20990,7 +20993,7 @@
         <v>10876.04</v>
       </c>
       <c r="H378">
-        <v>-7.74</v>
+        <v>-7.56</v>
       </c>
       <c r="I378">
         <v>55.98</v>
@@ -21025,7 +21028,7 @@
         <v>392</v>
       </c>
       <c r="C379">
-        <v>345</v>
+        <v>343.8</v>
       </c>
       <c r="D379">
         <v>91</v>
@@ -21040,7 +21043,7 @@
         <v>8314.540000000001</v>
       </c>
       <c r="H379">
-        <v>-13.61</v>
+        <v>-13.91</v>
       </c>
       <c r="I379">
         <v>337.59</v>
@@ -21075,7 +21078,7 @@
         <v>393</v>
       </c>
       <c r="C380">
-        <v>410.15</v>
+        <v>415.05</v>
       </c>
       <c r="D380">
         <v>64</v>
@@ -21090,7 +21093,7 @@
         <v>8027.66</v>
       </c>
       <c r="H380">
-        <v>-15.49</v>
+        <v>-14.48</v>
       </c>
       <c r="I380">
         <v>69.59999999999999</v>
@@ -21111,7 +21114,7 @@
         <v>381141</v>
       </c>
       <c r="O380" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P380" t="b">
         <v>1</v>
@@ -21125,7 +21128,7 @@
         <v>394</v>
       </c>
       <c r="C381">
-        <v>1026.9</v>
+        <v>1022.55</v>
       </c>
       <c r="D381">
         <v>75</v>
@@ -21140,7 +21143,7 @@
         <v>36850.26</v>
       </c>
       <c r="H381">
-        <v>-15.48</v>
+        <v>-15.84</v>
       </c>
       <c r="I381">
         <v>100.82</v>
@@ -21175,7 +21178,7 @@
         <v>395</v>
       </c>
       <c r="C382">
-        <v>290.7</v>
+        <v>295</v>
       </c>
       <c r="D382">
         <v>77</v>
@@ -21190,7 +21193,7 @@
         <v>1609.61</v>
       </c>
       <c r="H382">
-        <v>-19.24</v>
+        <v>-18.04</v>
       </c>
       <c r="I382">
         <v>141.58</v>
@@ -21225,7 +21228,7 @@
         <v>396</v>
       </c>
       <c r="C383">
-        <v>1610.05</v>
+        <v>1596</v>
       </c>
       <c r="D383">
         <v>75</v>
@@ -21240,7 +21243,7 @@
         <v>8871.23</v>
       </c>
       <c r="H383">
-        <v>-19.16</v>
+        <v>-19.87</v>
       </c>
       <c r="I383">
         <v>136.64</v>
@@ -21275,7 +21278,7 @@
         <v>397</v>
       </c>
       <c r="C384">
-        <v>260.95</v>
+        <v>262</v>
       </c>
       <c r="D384">
         <v>95</v>
@@ -21290,7 +21293,7 @@
         <v>684.6</v>
       </c>
       <c r="H384">
-        <v>-28.93</v>
+        <v>-28.64</v>
       </c>
       <c r="I384">
         <v>397.29</v>
@@ -21325,7 +21328,7 @@
         <v>398</v>
       </c>
       <c r="C385">
-        <v>2649.55</v>
+        <v>2624</v>
       </c>
       <c r="D385">
         <v>66</v>
@@ -21340,7 +21343,7 @@
         <v>44562.25</v>
       </c>
       <c r="H385">
-        <v>-14.2</v>
+        <v>-15.03</v>
       </c>
       <c r="I385">
         <v>89.92</v>
@@ -21375,7 +21378,7 @@
         <v>399</v>
       </c>
       <c r="C386">
-        <v>119.55</v>
+        <v>131.4</v>
       </c>
       <c r="D386">
         <v>54</v>
@@ -21390,7 +21393,7 @@
         <v>1704.58</v>
       </c>
       <c r="H386">
-        <v>-19.49</v>
+        <v>-11.52</v>
       </c>
       <c r="I386">
         <v>65.95</v>
@@ -21425,7 +21428,7 @@
         <v>400</v>
       </c>
       <c r="C387">
-        <v>770.95</v>
+        <v>771</v>
       </c>
       <c r="D387">
         <v>65</v>
@@ -21475,7 +21478,7 @@
         <v>401</v>
       </c>
       <c r="C388">
-        <v>1439.6</v>
+        <v>1457.8</v>
       </c>
       <c r="D388">
         <v>45</v>
@@ -21490,7 +21493,7 @@
         <v>2002.94</v>
       </c>
       <c r="H388">
-        <v>-16.83</v>
+        <v>-15.78</v>
       </c>
       <c r="I388">
         <v>42.98</v>
@@ -21525,7 +21528,7 @@
         <v>402</v>
       </c>
       <c r="C389">
-        <v>2421.45</v>
+        <v>2425.05</v>
       </c>
       <c r="D389">
         <v>75</v>
@@ -21540,7 +21543,7 @@
         <v>4246.32</v>
       </c>
       <c r="H389">
-        <v>-15.92</v>
+        <v>-15.8</v>
       </c>
       <c r="I389">
         <v>91.93000000000001</v>
@@ -21575,7 +21578,7 @@
         <v>403</v>
       </c>
       <c r="C390">
-        <v>519.55</v>
+        <v>535</v>
       </c>
       <c r="D390">
         <v>78</v>
@@ -21590,7 +21593,7 @@
         <v>7221.52</v>
       </c>
       <c r="H390">
-        <v>-16.07</v>
+        <v>-13.57</v>
       </c>
       <c r="I390">
         <v>116.31</v>
@@ -21661,7 +21664,7 @@
         <v>59440</v>
       </c>
       <c r="O391" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P391" t="b">
         <v>1</v>
@@ -21675,7 +21678,7 @@
         <v>405</v>
       </c>
       <c r="C392">
-        <v>4100</v>
+        <v>4087.95</v>
       </c>
       <c r="D392">
         <v>74</v>
@@ -21690,7 +21693,7 @@
         <v>16798.06</v>
       </c>
       <c r="H392">
-        <v>-6.44</v>
+        <v>-6.71</v>
       </c>
       <c r="I392">
         <v>132.59</v>
@@ -21725,7 +21728,7 @@
         <v>406</v>
       </c>
       <c r="C393">
-        <v>717.25</v>
+        <v>727</v>
       </c>
       <c r="D393">
         <v>70</v>
@@ -21740,7 +21743,7 @@
         <v>1210.5</v>
       </c>
       <c r="H393">
-        <v>-29</v>
+        <v>-28.03</v>
       </c>
       <c r="I393">
         <v>115.61</v>
@@ -21775,7 +21778,7 @@
         <v>407</v>
       </c>
       <c r="C394">
-        <v>7853.35</v>
+        <v>7829.5</v>
       </c>
       <c r="D394">
         <v>54</v>
@@ -21790,7 +21793,7 @@
         <v>19042.55</v>
       </c>
       <c r="H394">
-        <v>-17.23</v>
+        <v>-17.49</v>
       </c>
       <c r="I394">
         <v>46.27</v>
@@ -21825,7 +21828,7 @@
         <v>408</v>
       </c>
       <c r="C395">
-        <v>873.8</v>
+        <v>885</v>
       </c>
       <c r="D395">
         <v>61</v>
@@ -21840,7 +21843,7 @@
         <v>25279.56</v>
       </c>
       <c r="H395">
-        <v>-5.2</v>
+        <v>-3.98</v>
       </c>
       <c r="I395">
         <v>44.04</v>
@@ -21861,7 +21864,7 @@
         <v>1803076</v>
       </c>
       <c r="O395" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P395" t="b">
         <v>1</v>
@@ -21875,7 +21878,7 @@
         <v>409</v>
       </c>
       <c r="C396">
-        <v>186.26</v>
+        <v>190.3</v>
       </c>
       <c r="D396">
         <v>65</v>
@@ -21890,7 +21893,7 @@
         <v>9438.950000000001</v>
       </c>
       <c r="H396">
-        <v>-24.28</v>
+        <v>-22.64</v>
       </c>
       <c r="I396">
         <v>56.27</v>
@@ -21925,7 +21928,7 @@
         <v>410</v>
       </c>
       <c r="C397">
-        <v>418</v>
+        <v>429.85</v>
       </c>
       <c r="D397">
         <v>83</v>
@@ -21940,7 +21943,7 @@
         <v>841.6900000000001</v>
       </c>
       <c r="H397">
-        <v>-18.49</v>
+        <v>-16.18</v>
       </c>
       <c r="I397">
         <v>133.24</v>
@@ -21975,7 +21978,7 @@
         <v>411</v>
       </c>
       <c r="C398">
-        <v>7161.8</v>
+        <v>7124</v>
       </c>
       <c r="D398">
         <v>64</v>
@@ -21990,7 +21993,7 @@
         <v>18058.13</v>
       </c>
       <c r="H398">
-        <v>-12.01</v>
+        <v>-12.47</v>
       </c>
       <c r="I398">
         <v>61.41</v>
@@ -22025,7 +22028,7 @@
         <v>412</v>
       </c>
       <c r="C399">
-        <v>353.1</v>
+        <v>350</v>
       </c>
       <c r="D399">
         <v>53</v>
@@ -22040,7 +22043,7 @@
         <v>4383.35</v>
       </c>
       <c r="H399">
-        <v>-14.07</v>
+        <v>-14.82</v>
       </c>
       <c r="I399">
         <v>42.14</v>
@@ -22075,7 +22078,7 @@
         <v>413</v>
       </c>
       <c r="C400">
-        <v>1338</v>
+        <v>1342.5</v>
       </c>
       <c r="D400">
         <v>87</v>
@@ -22090,7 +22093,7 @@
         <v>8795.360000000001</v>
       </c>
       <c r="H400">
-        <v>-13.82</v>
+        <v>-13.53</v>
       </c>
       <c r="I400">
         <v>150.29</v>
@@ -22125,7 +22128,7 @@
         <v>414</v>
       </c>
       <c r="C401">
-        <v>210.34</v>
+        <v>209.69</v>
       </c>
       <c r="D401">
         <v>53</v>
@@ -22140,7 +22143,7 @@
         <v>698.39</v>
       </c>
       <c r="H401">
-        <v>-33.1</v>
+        <v>-33.3</v>
       </c>
       <c r="I401">
         <v>73.17</v>
@@ -22175,7 +22178,7 @@
         <v>415</v>
       </c>
       <c r="C402">
-        <v>7595.65</v>
+        <v>7680</v>
       </c>
       <c r="D402">
         <v>56</v>
@@ -22190,7 +22193,7 @@
         <v>22353.54</v>
       </c>
       <c r="H402">
-        <v>-7.14</v>
+        <v>-6.11</v>
       </c>
       <c r="I402">
         <v>46.72</v>
@@ -22225,7 +22228,7 @@
         <v>416</v>
       </c>
       <c r="C403">
-        <v>602.5</v>
+        <v>603.25</v>
       </c>
       <c r="D403">
         <v>56</v>
@@ -22240,7 +22243,7 @@
         <v>40039.4</v>
       </c>
       <c r="H403">
-        <v>-15.79</v>
+        <v>-15.68</v>
       </c>
       <c r="I403">
         <v>44.12</v>
@@ -22261,7 +22264,7 @@
         <v>1975849</v>
       </c>
       <c r="O403" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P403" t="b">
         <v>1</v>
@@ -22275,7 +22278,7 @@
         <v>417</v>
       </c>
       <c r="C404">
-        <v>496.8</v>
+        <v>502</v>
       </c>
       <c r="D404">
         <v>47</v>
@@ -22290,7 +22293,7 @@
         <v>3139</v>
       </c>
       <c r="H404">
-        <v>-16.5</v>
+        <v>-15.63</v>
       </c>
       <c r="I404">
         <v>42.93</v>
@@ -22325,7 +22328,7 @@
         <v>418</v>
       </c>
       <c r="C405">
-        <v>974.3</v>
+        <v>976.5</v>
       </c>
       <c r="D405">
         <v>81</v>
@@ -22340,7 +22343,7 @@
         <v>6696.67</v>
       </c>
       <c r="H405">
-        <v>-21.07</v>
+        <v>-20.9</v>
       </c>
       <c r="I405">
         <v>121.31</v>
@@ -22375,7 +22378,7 @@
         <v>419</v>
       </c>
       <c r="C406">
-        <v>30.31</v>
+        <v>30.16</v>
       </c>
       <c r="D406">
         <v>65</v>
@@ -22390,7 +22393,7 @@
         <v>518.49</v>
       </c>
       <c r="H406">
-        <v>-24.79</v>
+        <v>-25.16</v>
       </c>
       <c r="I406">
         <v>80.95999999999999</v>
@@ -22425,7 +22428,7 @@
         <v>420</v>
       </c>
       <c r="C407">
-        <v>519.2</v>
+        <v>520.75</v>
       </c>
       <c r="D407">
         <v>56</v>
@@ -22440,7 +22443,7 @@
         <v>3545.24</v>
       </c>
       <c r="H407">
-        <v>-14.88</v>
+        <v>-14.62</v>
       </c>
       <c r="I407">
         <v>56.51</v>
@@ -22475,7 +22478,7 @@
         <v>421</v>
       </c>
       <c r="C408">
-        <v>28.16</v>
+        <v>27.55</v>
       </c>
       <c r="D408">
         <v>75</v>
@@ -22490,7 +22493,7 @@
         <v>3142.33</v>
       </c>
       <c r="H408">
-        <v>-25.29</v>
+        <v>-26.9</v>
       </c>
       <c r="I408">
         <v>74.23</v>
@@ -22525,7 +22528,7 @@
         <v>422</v>
       </c>
       <c r="C409">
-        <v>729.2</v>
+        <v>728.2</v>
       </c>
       <c r="D409">
         <v>69</v>
@@ -22540,7 +22543,7 @@
         <v>1276.73</v>
       </c>
       <c r="H409">
-        <v>-22.59</v>
+        <v>-22.7</v>
       </c>
       <c r="I409">
         <v>68.66</v>
@@ -22575,7 +22578,7 @@
         <v>423</v>
       </c>
       <c r="C410">
-        <v>2205.85</v>
+        <v>2155.15</v>
       </c>
       <c r="D410">
         <v>74</v>
@@ -22590,7 +22593,7 @@
         <v>4931.25</v>
       </c>
       <c r="H410">
-        <v>-15.16</v>
+        <v>-17.11</v>
       </c>
       <c r="I410">
         <v>49.02</v>
@@ -22625,7 +22628,7 @@
         <v>424</v>
       </c>
       <c r="C411">
-        <v>1255.7</v>
+        <v>1265</v>
       </c>
       <c r="D411">
         <v>82</v>
@@ -22640,7 +22643,7 @@
         <v>17312.03</v>
       </c>
       <c r="H411">
-        <v>-18.88</v>
+        <v>-18.28</v>
       </c>
       <c r="I411">
         <v>133.93</v>
@@ -22661,7 +22664,7 @@
         <v>427077</v>
       </c>
       <c r="O411" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="P411" t="b">
         <v>1</v>
@@ -22675,7 +22678,7 @@
         <v>425</v>
       </c>
       <c r="C412">
-        <v>546.5</v>
+        <v>532.1</v>
       </c>
       <c r="D412">
         <v>67</v>
@@ -22690,7 +22693,7 @@
         <v>1026.51</v>
       </c>
       <c r="H412">
-        <v>-20.9</v>
+        <v>-22.98</v>
       </c>
       <c r="I412">
         <v>79.42</v>
@@ -22725,7 +22728,7 @@
         <v>426</v>
       </c>
       <c r="C413">
-        <v>814.55</v>
+        <v>815.8</v>
       </c>
       <c r="D413">
         <v>53</v>
@@ -22740,7 +22743,7 @@
         <v>1148.83</v>
       </c>
       <c r="H413">
-        <v>-18.11</v>
+        <v>-17.99</v>
       </c>
       <c r="I413">
         <v>59.48</v>
@@ -22761,7 +22764,7 @@
         <v>63720</v>
       </c>
       <c r="O413" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P413" t="b">
         <v>1</v>
@@ -22775,7 +22778,7 @@
         <v>427</v>
       </c>
       <c r="C414">
-        <v>396.95</v>
+        <v>401.25</v>
       </c>
       <c r="D414">
         <v>79</v>
@@ -22790,7 +22793,7 @@
         <v>840.45</v>
       </c>
       <c r="H414">
-        <v>-16.87</v>
+        <v>-15.97</v>
       </c>
       <c r="I414">
         <v>124.09</v>
@@ -22825,7 +22828,7 @@
         <v>428</v>
       </c>
       <c r="C415">
-        <v>548.95</v>
+        <v>547</v>
       </c>
       <c r="D415">
         <v>49</v>
@@ -22840,7 +22843,7 @@
         <v>1224.49</v>
       </c>
       <c r="H415">
-        <v>-21.56</v>
+        <v>-21.83</v>
       </c>
       <c r="I415">
         <v>41.24</v>
@@ -22875,7 +22878,7 @@
         <v>429</v>
       </c>
       <c r="C416">
-        <v>322.7</v>
+        <v>318.5</v>
       </c>
       <c r="D416">
         <v>73</v>
@@ -22890,7 +22893,7 @@
         <v>21059</v>
       </c>
       <c r="H416">
-        <v>-15.93</v>
+        <v>-17.02</v>
       </c>
       <c r="I416">
         <v>99.58</v>
@@ -22925,7 +22928,7 @@
         <v>430</v>
       </c>
       <c r="C417">
-        <v>760</v>
+        <v>760.05</v>
       </c>
       <c r="D417">
         <v>45</v>
@@ -22940,7 +22943,7 @@
         <v>1996.05</v>
       </c>
       <c r="H417">
-        <v>-23.89</v>
+        <v>-23.88</v>
       </c>
       <c r="I417">
         <v>68.42</v>
@@ -22975,7 +22978,7 @@
         <v>431</v>
       </c>
       <c r="C418">
-        <v>2232.75</v>
+        <v>2218.75</v>
       </c>
       <c r="D418">
         <v>70</v>
@@ -22990,7 +22993,7 @@
         <v>3799.83</v>
       </c>
       <c r="H418">
-        <v>-18.36</v>
+        <v>-18.88</v>
       </c>
       <c r="I418">
         <v>58.56</v>
@@ -23025,7 +23028,7 @@
         <v>432</v>
       </c>
       <c r="C419">
-        <v>2367.6</v>
+        <v>2395.75</v>
       </c>
       <c r="D419">
         <v>57</v>
@@ -23040,7 +23043,7 @@
         <v>33505.22</v>
       </c>
       <c r="H419">
-        <v>-22.66</v>
+        <v>-21.74</v>
       </c>
       <c r="I419">
         <v>52.75</v>
@@ -23075,7 +23078,7 @@
         <v>433</v>
       </c>
       <c r="C420">
-        <v>205.72</v>
+        <v>208.99</v>
       </c>
       <c r="D420">
         <v>77</v>
@@ -23090,7 +23093,7 @@
         <v>6331.02</v>
       </c>
       <c r="H420">
-        <v>-10.42</v>
+        <v>-9</v>
       </c>
       <c r="I420">
         <v>185.82</v>
@@ -23125,7 +23128,7 @@
         <v>434</v>
       </c>
       <c r="C421">
-        <v>186.47</v>
+        <v>179.52</v>
       </c>
       <c r="D421">
         <v>67</v>
@@ -23140,7 +23143,7 @@
         <v>655.48</v>
       </c>
       <c r="H421">
-        <v>-20.58</v>
+        <v>-23.54</v>
       </c>
       <c r="I421">
         <v>116.01</v>
@@ -23175,7 +23178,7 @@
         <v>435</v>
       </c>
       <c r="C422">
-        <v>1628.4</v>
+        <v>1610</v>
       </c>
       <c r="D422">
         <v>83</v>
@@ -23187,7 +23190,7 @@
         <v>2726.21</v>
       </c>
       <c r="H422">
-        <v>-5.87</v>
+        <v>-6.94</v>
       </c>
       <c r="I422">
         <v>47.58</v>
@@ -23269,7 +23272,7 @@
         <v>437</v>
       </c>
       <c r="C424">
-        <v>4340.75</v>
+        <v>4313</v>
       </c>
       <c r="D424">
         <v>91</v>
@@ -23284,7 +23287,7 @@
         <v>57848.87</v>
       </c>
       <c r="H424">
-        <v>-13.01</v>
+        <v>-13.56</v>
       </c>
       <c r="I424">
         <v>169.41</v>
@@ -23319,7 +23322,7 @@
         <v>438</v>
       </c>
       <c r="C425">
-        <v>972</v>
+        <v>997.85</v>
       </c>
       <c r="D425">
         <v>82</v>
@@ -23334,7 +23337,7 @@
         <v>50958.49</v>
       </c>
       <c r="H425">
-        <v>-6.54</v>
+        <v>-4.05</v>
       </c>
       <c r="I425">
         <v>100.84</v>
@@ -23369,7 +23372,7 @@
         <v>439</v>
       </c>
       <c r="C426">
-        <v>1442.15</v>
+        <v>1465</v>
       </c>
       <c r="D426">
         <v>83</v>
@@ -23384,7 +23387,7 @@
         <v>72917.5</v>
       </c>
       <c r="H426">
-        <v>-8.029999999999999</v>
+        <v>-6.57</v>
       </c>
       <c r="I426">
         <v>70.73999999999999</v>
@@ -23405,7 +23408,7 @@
         <v>465451</v>
       </c>
       <c r="O426" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P426" t="b">
         <v>0</v>
@@ -23419,7 +23422,7 @@
         <v>440</v>
       </c>
       <c r="C427">
-        <v>4591.9</v>
+        <v>4749.95</v>
       </c>
       <c r="D427">
         <v>69</v>
@@ -23434,7 +23437,7 @@
         <v>89648.74000000001</v>
       </c>
       <c r="H427">
-        <v>-4.55</v>
+        <v>-1.26</v>
       </c>
       <c r="I427">
         <v>60.98</v>
@@ -23469,7 +23472,7 @@
         <v>441</v>
       </c>
       <c r="C428">
-        <v>1975.95</v>
+        <v>1950</v>
       </c>
       <c r="D428">
         <v>88</v>
@@ -23484,7 +23487,7 @@
         <v>94056.75</v>
       </c>
       <c r="H428">
-        <v>-3</v>
+        <v>-4.27</v>
       </c>
       <c r="I428">
         <v>182.82</v>
@@ -23519,7 +23522,7 @@
         <v>442</v>
       </c>
       <c r="C429">
-        <v>5557.8</v>
+        <v>5694</v>
       </c>
       <c r="D429">
         <v>80</v>
@@ -23534,7 +23537,7 @@
         <v>88326.09</v>
       </c>
       <c r="H429">
-        <v>-4.15</v>
+        <v>-1.81</v>
       </c>
       <c r="I429">
         <v>101.36</v>
@@ -23569,7 +23572,7 @@
         <v>443</v>
       </c>
       <c r="C430">
-        <v>697.5</v>
+        <v>693.75</v>
       </c>
       <c r="D430">
         <v>86</v>
@@ -23584,7 +23587,7 @@
         <v>71634.53</v>
       </c>
       <c r="H430">
-        <v>-11.29</v>
+        <v>-11.76</v>
       </c>
       <c r="I430">
         <v>149.78</v>
@@ -23619,7 +23622,7 @@
         <v>444</v>
       </c>
       <c r="C431">
-        <v>1995.45</v>
+        <v>1983.65</v>
       </c>
       <c r="D431">
         <v>76</v>
@@ -23634,7 +23637,7 @@
         <v>71176.91</v>
       </c>
       <c r="H431">
-        <v>-3.38</v>
+        <v>-3.95</v>
       </c>
       <c r="I431">
         <v>86.23999999999999</v>
@@ -23669,7 +23672,7 @@
         <v>445</v>
       </c>
       <c r="C432">
-        <v>3067.65</v>
+        <v>3095</v>
       </c>
       <c r="D432">
         <v>67</v>
@@ -23684,7 +23687,7 @@
         <v>58911.19</v>
       </c>
       <c r="H432">
-        <v>-3.77</v>
+        <v>-2.91</v>
       </c>
       <c r="I432">
         <v>50.78</v>
@@ -23719,7 +23722,7 @@
         <v>446</v>
       </c>
       <c r="C433">
-        <v>1802.65</v>
+        <v>1794.95</v>
       </c>
       <c r="D433">
         <v>82</v>
@@ -23734,7 +23737,7 @@
         <v>59415.37</v>
       </c>
       <c r="H433">
-        <v>-7.31</v>
+        <v>-7.71</v>
       </c>
       <c r="I433">
         <v>121.38</v>
@@ -23769,7 +23772,7 @@
         <v>447</v>
       </c>
       <c r="C434">
-        <v>4989.1</v>
+        <v>5160</v>
       </c>
       <c r="D434">
         <v>72</v>
@@ -23784,7 +23787,7 @@
         <v>60108.84</v>
       </c>
       <c r="H434">
-        <v>-14.57</v>
+        <v>-11.64</v>
       </c>
       <c r="I434">
         <v>101.76</v>
@@ -23819,7 +23822,7 @@
         <v>448</v>
       </c>
       <c r="C435">
-        <v>937.15</v>
+        <v>940</v>
       </c>
       <c r="D435">
         <v>94</v>
@@ -23834,7 +23837,7 @@
         <v>56643.06</v>
       </c>
       <c r="H435">
-        <v>-11.92</v>
+        <v>-11.65</v>
       </c>
       <c r="I435">
         <v>319.62</v>
@@ -23869,7 +23872,7 @@
         <v>449</v>
       </c>
       <c r="C436">
-        <v>7655.05</v>
+        <v>7700</v>
       </c>
       <c r="D436">
         <v>72</v>
@@ -23884,7 +23887,7 @@
         <v>50428.67</v>
       </c>
       <c r="H436">
-        <v>0.08</v>
+        <v>0.67</v>
       </c>
       <c r="I436">
         <v>76.29000000000001</v>
@@ -23919,7 +23922,7 @@
         <v>450</v>
       </c>
       <c r="C437">
-        <v>4791.7</v>
+        <v>4697.95</v>
       </c>
       <c r="D437">
         <v>62</v>
@@ -23934,7 +23937,7 @@
         <v>54487.62</v>
       </c>
       <c r="H437">
-        <v>-13.44</v>
+        <v>-15.14</v>
       </c>
       <c r="I437">
         <v>66.66</v>
@@ -23969,7 +23972,7 @@
         <v>451</v>
       </c>
       <c r="C438">
-        <v>1775.6</v>
+        <v>1745</v>
       </c>
       <c r="D438">
         <v>60</v>
@@ -23984,7 +23987,7 @@
         <v>64342.8</v>
       </c>
       <c r="H438">
-        <v>-10.87</v>
+        <v>-12.41</v>
       </c>
       <c r="I438">
         <v>51.93</v>
@@ -24019,7 +24022,7 @@
         <v>452</v>
       </c>
       <c r="C439">
-        <v>395.65</v>
+        <v>403.7</v>
       </c>
       <c r="D439">
         <v>79</v>
@@ -24034,7 +24037,7 @@
         <v>84655.44</v>
       </c>
       <c r="H439">
-        <v>-13.45</v>
+        <v>-11.69</v>
       </c>
       <c r="I439">
         <v>148.25</v>
@@ -24055,7 +24058,7 @@
         <v>9277383</v>
       </c>
       <c r="O439" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P439" t="b">
         <v>0</v>
@@ -24069,7 +24072,7 @@
         <v>453</v>
       </c>
       <c r="C440">
-        <v>343.55</v>
+        <v>339.55</v>
       </c>
       <c r="D440">
         <v>62</v>
@@ -24084,7 +24087,7 @@
         <v>51757.5</v>
       </c>
       <c r="H440">
-        <v>-10.58</v>
+        <v>-11.62</v>
       </c>
       <c r="I440">
         <v>79.98999999999999</v>
@@ -24105,7 +24108,7 @@
         <v>3452618</v>
       </c>
       <c r="O440" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P440" t="b">
         <v>0</v>
@@ -24119,7 +24122,7 @@
         <v>454</v>
       </c>
       <c r="C441">
-        <v>6901</v>
+        <v>6968</v>
       </c>
       <c r="D441">
         <v>57</v>
@@ -24134,7 +24137,7 @@
         <v>99308.71000000001</v>
       </c>
       <c r="H441">
-        <v>-5.68</v>
+        <v>-4.77</v>
       </c>
       <c r="I441">
         <v>46.14</v>
@@ -24169,7 +24172,7 @@
         <v>455</v>
       </c>
       <c r="C442">
-        <v>5915.5</v>
+        <v>5941.2</v>
       </c>
       <c r="D442">
         <v>68</v>
@@ -24184,7 +24187,7 @@
         <v>69999.92999999999</v>
       </c>
       <c r="H442">
-        <v>-8.140000000000001</v>
+        <v>-7.74</v>
       </c>
       <c r="I442">
         <v>66.8</v>
@@ -24219,7 +24222,7 @@
         <v>456</v>
       </c>
       <c r="C443">
-        <v>2083.95</v>
+        <v>2130</v>
       </c>
       <c r="D443">
         <v>75</v>
@@ -24234,7 +24237,7 @@
         <v>94629.14999999999</v>
       </c>
       <c r="H443">
-        <v>-9.859999999999999</v>
+        <v>-7.87</v>
       </c>
       <c r="I443">
         <v>84.73</v>
@@ -24269,7 +24272,7 @@
         <v>457</v>
       </c>
       <c r="C444">
-        <v>1721.5</v>
+        <v>1685</v>
       </c>
       <c r="D444">
         <v>75</v>
@@ -24284,7 +24287,7 @@
         <v>74092.02</v>
       </c>
       <c r="H444">
-        <v>-17.03</v>
+        <v>-18.79</v>
       </c>
       <c r="I444">
         <v>140.56</v>
@@ -24319,7 +24322,7 @@
         <v>458</v>
       </c>
       <c r="C445">
-        <v>4471.3</v>
+        <v>4430</v>
       </c>
       <c r="D445">
         <v>69</v>
@@ -24334,7 +24337,7 @@
         <v>96105.84</v>
       </c>
       <c r="H445">
-        <v>-8.07</v>
+        <v>-8.92</v>
       </c>
       <c r="I445">
         <v>67.20999999999999</v>
@@ -24369,7 +24372,7 @@
         <v>459</v>
       </c>
       <c r="C446">
-        <v>1965</v>
+        <v>1954.1</v>
       </c>
       <c r="D446">
         <v>60</v>
@@ -24384,7 +24387,7 @@
         <v>96920.42</v>
       </c>
       <c r="H446">
-        <v>-14.64</v>
+        <v>-15.11</v>
       </c>
       <c r="I446">
         <v>47.04</v>
@@ -24405,7 +24408,7 @@
         <v>842494</v>
       </c>
       <c r="O446" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P446" t="b">
         <v>0</v>
@@ -24419,7 +24422,7 @@
         <v>460</v>
       </c>
       <c r="C447">
-        <v>654.55</v>
+        <v>667.5</v>
       </c>
       <c r="D447">
         <v>67</v>
@@ -24434,7 +24437,7 @@
         <v>93754.35000000001</v>
       </c>
       <c r="H447">
-        <v>-9.15</v>
+        <v>-7.35</v>
       </c>
       <c r="I447">
         <v>77.25</v>
@@ -24469,7 +24472,7 @@
         <v>461</v>
       </c>
       <c r="C448">
-        <v>1636.95</v>
+        <v>1637.9</v>
       </c>
       <c r="D448">
         <v>82</v>
@@ -24484,7 +24487,7 @@
         <v>74815.72</v>
       </c>
       <c r="H448">
-        <v>-16.76</v>
+        <v>-16.71</v>
       </c>
       <c r="I448">
         <v>148.04</v>
@@ -24505,7 +24508,7 @@
         <v>1957658</v>
       </c>
       <c r="O448" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P448" t="b">
         <v>0</v>
@@ -24519,7 +24522,7 @@
         <v>462</v>
       </c>
       <c r="C449">
-        <v>904.65</v>
+        <v>911</v>
       </c>
       <c r="D449">
         <v>60</v>
@@ -24534,7 +24537,7 @@
         <v>88872.31</v>
       </c>
       <c r="H449">
-        <v>-19.08</v>
+        <v>-18.52</v>
       </c>
       <c r="I449">
         <v>69.72</v>
@@ -24569,7 +24572,7 @@
         <v>463</v>
       </c>
       <c r="C450">
-        <v>3053</v>
+        <v>2935</v>
       </c>
       <c r="D450">
         <v>67</v>
@@ -24584,7 +24587,7 @@
         <v>82425.92</v>
       </c>
       <c r="H450">
-        <v>-10.28</v>
+        <v>-13.74</v>
       </c>
       <c r="I450">
         <v>91.39</v>
@@ -24619,7 +24622,7 @@
         <v>464</v>
       </c>
       <c r="C451">
-        <v>1939.1</v>
+        <v>1936.9</v>
       </c>
       <c r="D451">
         <v>67</v>
@@ -24634,7 +24637,7 @@
         <v>77283.83</v>
       </c>
       <c r="H451">
-        <v>-6.72</v>
+        <v>-6.82</v>
       </c>
       <c r="I451">
         <v>58.31</v>
@@ -24669,7 +24672,7 @@
         <v>465</v>
       </c>
       <c r="C452">
-        <v>1443.45</v>
+        <v>1445.35</v>
       </c>
       <c r="D452">
         <v>65</v>
@@ -24684,7 +24687,7 @@
         <v>83287.00999999999</v>
       </c>
       <c r="H452">
-        <v>-9.33</v>
+        <v>-9.210000000000001</v>
       </c>
       <c r="I452">
         <v>71.81</v>
